--- a/設計書/DB設計書.xlsx
+++ b/設計書/DB設計書.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m-matsuka\Desktop\GitHub_クローン\company_evaluation\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6B92CB-B171-442D-9CE0-B2F300663AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DBAF0E-0A07-499D-88E2-3A96291360B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="7" xr2:uid="{49359F61-E175-4E64-83B2-4241FAD3E8F3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="5" xr2:uid="{49359F61-E175-4E64-83B2-4241FAD3E8F3}"/>
   </bookViews>
   <sheets>
     <sheet name="E-R図" sheetId="10" r:id="rId1"/>
     <sheet name="TM_min_money" sheetId="20" r:id="rId2"/>
-    <sheet name="TM_login" sheetId="19" r:id="rId3"/>
+    <sheet name="TM_user" sheetId="19" r:id="rId3"/>
     <sheet name="TM_salary" sheetId="14" r:id="rId4"/>
     <sheet name="TM_self_check" sheetId="13" r:id="rId5"/>
     <sheet name="TM_point" sheetId="11" r:id="rId6"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="196">
   <si>
     <t>テーブル論理名</t>
     <rPh sb="4" eb="6">
@@ -923,9 +923,6 @@
     <t>create_date</t>
   </si>
   <si>
-    <t>create_id</t>
-  </si>
-  <si>
     <t>update_date</t>
   </si>
   <si>
@@ -936,14 +933,6 @@
   </si>
   <si>
     <t>TE_staff_cp</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>TM_login</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ログインテーブル</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -954,32 +943,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ログインID</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ログイン名</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>パスワード</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>login_id</t>
-  </si>
-  <si>
-    <t>login_id</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>login_name</t>
-  </si>
-  <si>
-    <t>login_name</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -1099,6 +1063,71 @@
     <rPh sb="0" eb="4">
       <t>キンゾクネンスウ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>assess_date</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザ区分</t>
+    <rPh sb="3" eb="5">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>TM_user</t>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>user_kbn</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>TINYINT</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SMALLINT</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>7,0</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>面談実施日</t>
+    <rPh sb="0" eb="2">
+      <t>メンダン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ジッシビ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザ名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザテーブル</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1435,20 +1464,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1462,35 +1485,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1504,17 +1512,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1537,26 +1545,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1575,6 +1571,39 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1599,8 +1628,8 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
@@ -1622,8 +1651,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5619750" y="4181475"/>
-          <a:ext cx="1704975" cy="952500"/>
+          <a:off x="5600700" y="4419600"/>
+          <a:ext cx="1724025" cy="714375"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1656,8 +1685,8 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
@@ -1678,8 +1707,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5610225" y="4638675"/>
-          <a:ext cx="1724025" cy="504825"/>
+          <a:off x="5610225" y="4886325"/>
+          <a:ext cx="1724025" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1886,7 +1915,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1901,9 +1930,233 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
+        <a:xfrm flipH="1" flipV="1">
           <a:off x="9048750" y="3686175"/>
-          <a:ext cx="1209675" cy="0"/>
+          <a:ext cx="1209675" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1190625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>113109</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55D17FEE-CAE4-6C1D-8E54-1FDA597A2EB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9072562" y="3238500"/>
+          <a:ext cx="1178719" cy="1875234"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>89297</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1066183-0FCF-BD21-BBA8-8A6C6CD98589}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9084469" y="3695700"/>
+          <a:ext cx="1184672" cy="1394222"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1190625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4E68F0B-21E1-4DFF-AA5F-A3C281EADB36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9072562" y="5083969"/>
+          <a:ext cx="1178719" cy="1707356"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>29766</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>101203</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1200150</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F774B6C3-B4A8-4306-AAFD-BA12B48EF62A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9090422" y="5101828"/>
+          <a:ext cx="1170384" cy="2175272"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2232,10 +2485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBDE19C-B165-487B-A0EF-9AB241E95748}">
-  <dimension ref="A1:AI29"/>
+  <dimension ref="A1:AI31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2301,7 +2554,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="22">
-        <v>45148</v>
+        <v>45154</v>
       </c>
       <c r="K2" s="23"/>
       <c r="M2" s="23"/>
@@ -2382,7 +2635,7 @@
         <v>154</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="H9" s="30" t="s">
         <v>134</v>
@@ -2396,7 +2649,7 @@
         <v>155</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H10" s="30" t="s">
         <v>135</v>
@@ -2429,7 +2682,10 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.4">
       <c r="D13" s="30" t="s">
-        <v>180</v>
+        <v>171</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2437,12 +2693,15 @@
         <v>156</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B15" s="27" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>157</v>
@@ -2450,13 +2709,13 @@
       <c r="F15" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="H15" s="27" t="s">
-        <v>62</v>
+      <c r="H15" s="30" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B16" s="25" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>158</v>
@@ -2464,66 +2723,60 @@
       <c r="F16" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="H16" s="25" t="s">
-        <v>141</v>
+      <c r="H16" s="26" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D17" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="D18" s="30" t="s">
         <v>159</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="H17" s="30" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="D18" s="26" t="s">
-        <v>160</v>
       </c>
       <c r="F18" s="30" t="s">
         <v>144</v>
-      </c>
-      <c r="H18" s="30" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B19" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="H19" s="30" t="s">
-        <v>143</v>
+      <c r="D19" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="D20" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="H20" s="30" t="s">
-        <v>134</v>
+      <c r="D20" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B21" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D21" s="30" t="s">
-        <v>137</v>
+      <c r="D21" s="26" t="s">
+        <v>161</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="H21" s="30" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
@@ -2531,10 +2784,10 @@
         <v>147</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>144</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
@@ -2542,10 +2795,10 @@
         <v>148</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
@@ -2553,32 +2806,63 @@
         <v>149</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>175</v>
+        <v>166</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B25" s="30" t="s">
         <v>150</v>
       </c>
+      <c r="F25" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B26" s="30" t="s">
         <v>151</v>
       </c>
+      <c r="H26" s="30" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="H27" s="27" t="s">
+      <c r="H27" s="30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H28" s="30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B29" s="27" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="H28" s="25" t="s">
+      <c r="H29" s="26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B30" s="25" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="H29" s="26" t="s">
+      <c r="H30" s="30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B31" s="26" t="s">
         <v>40</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2597,361 +2881,365 @@
   <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="38" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="39"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="41" t="s">
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
       <c r="Z1" s="29"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="38" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="76" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="39"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="44">
+      <c r="S2" s="37"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="43">
         <v>45146</v>
       </c>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
       <c r="Z2" s="29"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="38" t="s">
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="79" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="39"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
       <c r="Z3" s="29"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="38" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="39"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="43">
+        <v>45154</v>
+      </c>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
       <c r="Z4" s="29"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66" t="s">
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66" t="s">
+      <c r="J6" s="59"/>
+      <c r="K6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="66"/>
+      <c r="L6" s="59"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="66" t="s">
+      <c r="N6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="67" t="s">
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="56" t="s">
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="56"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60" t="s">
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="61" t="s">
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61">
+      <c r="J7" s="54"/>
+      <c r="K7" s="54">
         <v>6</v>
       </c>
-      <c r="L7" s="61"/>
+      <c r="L7" s="54"/>
       <c r="M7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="61" t="s">
+      <c r="N7" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="63"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="65"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="65"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60" t="s">
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="61" t="s">
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61">
+      <c r="J8" s="54"/>
+      <c r="K8" s="54">
         <v>5</v>
       </c>
-      <c r="L8" s="61"/>
+      <c r="L8" s="54"/>
       <c r="M8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="61" t="s">
+      <c r="N8" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="63"/>
-      <c r="S8" s="63"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="65"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="65"/>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="65"/>
-      <c r="AA8" s="65"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="61" t="s">
+      <c r="B9" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53" t="s">
+        <v>183</v>
+      </c>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61" t="s">
+      <c r="J9" s="54"/>
+      <c r="K9" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="61"/>
+      <c r="L9" s="54"/>
       <c r="M9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="61" t="s">
+      <c r="N9" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="63"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="65"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60" t="s">
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="61" t="s">
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61">
+      <c r="J10" s="54"/>
+      <c r="K10" s="54">
         <v>200</v>
       </c>
-      <c r="L10" s="61"/>
+      <c r="L10" s="54"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="63"/>
-      <c r="S10" s="63"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="65"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="49">
@@ -3021,576 +3309,576 @@
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="38" t="s">
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="39"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="41" t="s">
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
       <c r="Z1" s="14"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="36" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="38" t="s">
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="39"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="44">
+      <c r="S2" s="37"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="43">
         <v>45069</v>
       </c>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
       <c r="Z2" s="16"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="51" t="s">
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="38" t="s">
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="39"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="41" t="s">
+      <c r="S3" s="37"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
       <c r="Z3" s="17"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="38" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="39"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="44">
+      <c r="S4" s="37"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="43">
         <v>45072</v>
       </c>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
       <c r="Z4" s="18"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66" t="s">
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66" t="s">
+      <c r="J6" s="59"/>
+      <c r="K6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="66"/>
+      <c r="L6" s="59"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="66" t="s">
+      <c r="N6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="67" t="s">
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="56" t="s">
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="56"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60" t="s">
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="61" t="s">
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61">
+      <c r="J7" s="54"/>
+      <c r="K7" s="54">
         <v>6</v>
       </c>
-      <c r="L7" s="61"/>
+      <c r="L7" s="54"/>
       <c r="M7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="61" t="s">
+      <c r="N7" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="62" t="s">
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="63"/>
-      <c r="S7" s="63"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="65"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="65"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60" t="s">
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="61" t="s">
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61">
+      <c r="J8" s="54"/>
+      <c r="K8" s="54">
         <v>2</v>
       </c>
-      <c r="L8" s="61"/>
+      <c r="L8" s="54"/>
       <c r="M8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="61" t="s">
+      <c r="N8" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="62" t="s">
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="63"/>
-      <c r="S8" s="63"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="65"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="65"/>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="65"/>
-      <c r="AA8" s="65"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60" t="s">
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="61" t="s">
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61" t="s">
+      <c r="J9" s="54"/>
+      <c r="K9" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="61"/>
+      <c r="L9" s="54"/>
       <c r="M9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="61" t="s">
+      <c r="N9" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="62" t="s">
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="63"/>
-      <c r="S9" s="63"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="65" t="s">
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="65"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60" t="s">
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="61" t="s">
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61">
+      <c r="J10" s="54"/>
+      <c r="K10" s="54">
         <v>3</v>
       </c>
-      <c r="L10" s="61"/>
+      <c r="L10" s="54"/>
       <c r="M10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N10" s="61" t="s">
+      <c r="N10" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61" t="s">
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="61"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="65"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="13"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
       <c r="M11" s="13"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="77"/>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="77"/>
-      <c r="S11" s="77"/>
-      <c r="T11" s="77"/>
-      <c r="U11" s="76"/>
-      <c r="V11" s="76"/>
-      <c r="W11" s="76"/>
-      <c r="X11" s="76"/>
-      <c r="Y11" s="76"/>
-      <c r="Z11" s="76"/>
-      <c r="AA11" s="76"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="65"/>
+      <c r="X11" s="65"/>
+      <c r="Y11" s="65"/>
+      <c r="Z11" s="65"/>
+      <c r="AA11" s="65"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="13"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="77"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
       <c r="M12" s="13"/>
-      <c r="N12" s="77"/>
-      <c r="O12" s="77"/>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="77"/>
-      <c r="S12" s="77"/>
-      <c r="T12" s="77"/>
-      <c r="U12" s="76"/>
-      <c r="V12" s="76"/>
-      <c r="W12" s="76"/>
-      <c r="X12" s="76"/>
-      <c r="Y12" s="76"/>
-      <c r="Z12" s="76"/>
-      <c r="AA12" s="76"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="65"/>
+      <c r="V12" s="65"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="65"/>
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="65"/>
+      <c r="AA12" s="65"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="13"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
       <c r="M13" s="13"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="77"/>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="77"/>
-      <c r="S13" s="77"/>
-      <c r="T13" s="77"/>
-      <c r="U13" s="76"/>
-      <c r="V13" s="76"/>
-      <c r="W13" s="76"/>
-      <c r="X13" s="76"/>
-      <c r="Y13" s="76"/>
-      <c r="Z13" s="76"/>
-      <c r="AA13" s="76"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="65"/>
+      <c r="V13" s="65"/>
+      <c r="W13" s="65"/>
+      <c r="X13" s="65"/>
+      <c r="Y13" s="65"/>
+      <c r="Z13" s="65"/>
+      <c r="AA13" s="65"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="13"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
       <c r="M14" s="13"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="77"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="77"/>
-      <c r="S14" s="77"/>
-      <c r="T14" s="77"/>
-      <c r="U14" s="76"/>
-      <c r="V14" s="76"/>
-      <c r="W14" s="76"/>
-      <c r="X14" s="76"/>
-      <c r="Y14" s="76"/>
-      <c r="Z14" s="76"/>
-      <c r="AA14" s="76"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="65"/>
+      <c r="V14" s="65"/>
+      <c r="W14" s="65"/>
+      <c r="X14" s="65"/>
+      <c r="Y14" s="65"/>
+      <c r="Z14" s="65"/>
+      <c r="AA14" s="65"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="13"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
       <c r="M15" s="13"/>
-      <c r="N15" s="77"/>
-      <c r="O15" s="77"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="77"/>
-      <c r="S15" s="77"/>
-      <c r="T15" s="77"/>
-      <c r="U15" s="76"/>
-      <c r="V15" s="76"/>
-      <c r="W15" s="76"/>
-      <c r="X15" s="76"/>
-      <c r="Y15" s="76"/>
-      <c r="Z15" s="76"/>
-      <c r="AA15" s="76"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="66"/>
+      <c r="T15" s="66"/>
+      <c r="U15" s="65"/>
+      <c r="V15" s="65"/>
+      <c r="W15" s="65"/>
+      <c r="X15" s="65"/>
+      <c r="Y15" s="65"/>
+      <c r="Z15" s="65"/>
+      <c r="AA15" s="65"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="13"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
       <c r="M16" s="13"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="77"/>
-      <c r="S16" s="77"/>
-      <c r="T16" s="77"/>
-      <c r="U16" s="76"/>
-      <c r="V16" s="76"/>
-      <c r="W16" s="76"/>
-      <c r="X16" s="76"/>
-      <c r="Y16" s="76"/>
-      <c r="Z16" s="76"/>
-      <c r="AA16" s="76"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="66"/>
+      <c r="T16" s="66"/>
+      <c r="U16" s="65"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="65"/>
+      <c r="X16" s="65"/>
+      <c r="Y16" s="65"/>
+      <c r="Z16" s="65"/>
+      <c r="AA16" s="65"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="13"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
       <c r="M17" s="13"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="77"/>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="77"/>
-      <c r="S17" s="77"/>
-      <c r="T17" s="77"/>
-      <c r="U17" s="76"/>
-      <c r="V17" s="76"/>
-      <c r="W17" s="76"/>
-      <c r="X17" s="76"/>
-      <c r="Y17" s="76"/>
-      <c r="Z17" s="76"/>
-      <c r="AA17" s="76"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="66"/>
+      <c r="U17" s="65"/>
+      <c r="V17" s="65"/>
+      <c r="W17" s="65"/>
+      <c r="X17" s="65"/>
+      <c r="Y17" s="65"/>
+      <c r="Z17" s="65"/>
+      <c r="AA17" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="98">
@@ -3703,7 +3991,7 @@
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3715,68 +4003,68 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
-      <c r="E1" s="70" t="s">
-        <v>184</v>
-      </c>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="38" t="s">
+      <c r="E1" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="39"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="41" t="s">
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="70" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="38" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="39"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="44">
+      <c r="S2" s="37"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="43">
         <v>45148</v>
       </c>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
@@ -3785,60 +4073,64 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="73" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="38" t="s">
+      <c r="E3" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="39"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="38" t="s">
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="39"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="43">
+        <v>45154</v>
+      </c>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="U5" s="3"/>
@@ -3852,95 +4144,95 @@
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66" t="s">
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66" t="s">
+      <c r="J6" s="59"/>
+      <c r="K6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="66"/>
+      <c r="L6" s="59"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="66" t="s">
+      <c r="N6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="67" t="s">
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="56" t="s">
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="56"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60" t="s">
-        <v>188</v>
-      </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61">
-        <v>5</v>
-      </c>
-      <c r="L7" s="61"/>
+      <c r="B7" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="54"/>
       <c r="M7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="61" t="s">
+      <c r="N7" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="62" t="s">
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="63"/>
-      <c r="S7" s="63"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="65" t="s">
-        <v>189</v>
-      </c>
-      <c r="V7" s="65"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="65"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -3953,16 +4245,16 @@
     <mergeCell ref="N7:P7"/>
     <mergeCell ref="Q7:T7"/>
     <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
     <mergeCell ref="E3:Q4"/>
     <mergeCell ref="R3:T3"/>
     <mergeCell ref="U3:Y3"/>
     <mergeCell ref="R4:T4"/>
     <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
     <mergeCell ref="E1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="U1:Y1"/>
@@ -3978,10 +4270,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D625D5-7720-4372-924A-B23A48904B15}">
-  <dimension ref="A1:AA9"/>
+  <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E3" sqref="E3:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3993,68 +4285,68 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
-      <c r="E1" s="70" t="s">
-        <v>165</v>
-      </c>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="38" t="s">
+      <c r="E1" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="39"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="41" t="s">
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="70" t="s">
-        <v>166</v>
-      </c>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="38" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="39"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="44">
+      <c r="S2" s="37"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="43">
         <v>45147</v>
       </c>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
@@ -4063,60 +4355,64 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="73" t="s">
-        <v>167</v>
-      </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="38" t="s">
+      <c r="E3" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="39"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="38" t="s">
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="39"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="43">
+        <v>45154</v>
+      </c>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="U5" s="3"/>
@@ -4130,178 +4426,217 @@
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66" t="s">
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66" t="s">
+      <c r="J6" s="59"/>
+      <c r="K6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="66"/>
+      <c r="L6" s="59"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="66" t="s">
+      <c r="N6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="67" t="s">
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="56" t="s">
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="56"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="60" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60" t="s">
-        <v>172</v>
-      </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="61" t="s">
+      <c r="B7" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53" t="s">
+        <v>182</v>
+      </c>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61">
-        <v>20</v>
-      </c>
-      <c r="L7" s="61"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54">
+        <v>10</v>
+      </c>
+      <c r="L7" s="54"/>
       <c r="M7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="61" t="s">
+      <c r="N7" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="62" t="s">
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="63"/>
-      <c r="S7" s="63"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="65"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="65"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="60" t="s">
-        <v>169</v>
-      </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60" t="s">
-        <v>174</v>
-      </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="61" t="s">
+      <c r="B8" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61">
+      <c r="J8" s="54"/>
+      <c r="K8" s="54">
         <v>20</v>
       </c>
-      <c r="L8" s="61"/>
+      <c r="L8" s="54"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="61" t="s">
+      <c r="N8" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="63"/>
-      <c r="S8" s="63"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="65"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="65"/>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="65"/>
-      <c r="AA8" s="65"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="60" t="s">
-        <v>170</v>
-      </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60" t="s">
-        <v>176</v>
-      </c>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="61" t="s">
+      <c r="B9" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61">
-        <v>20</v>
-      </c>
-      <c r="L9" s="61"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54">
+        <v>10</v>
+      </c>
+      <c r="L9" s="54"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="61" t="s">
+      <c r="N9" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="63"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="65"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53" t="s">
+        <v>187</v>
+      </c>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54">
+        <v>10</v>
+      </c>
+      <c r="L10" s="54"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="47">
     <mergeCell ref="U8:AA8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F9:H9"/>
@@ -4342,6 +4677,13 @@
     <mergeCell ref="E2:Q2"/>
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4353,7 +4695,7 @@
   <dimension ref="A1:AA12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11:L11"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4365,68 +4707,68 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="38" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="39"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="41" t="s">
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="38" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="39"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="44">
+      <c r="S2" s="37"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="43">
         <v>45146</v>
       </c>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
@@ -4435,64 +4777,64 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="38" t="s">
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="39"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="41" t="s">
+      <c r="S3" s="37"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="38" t="s">
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="39"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="44">
-        <v>45148</v>
-      </c>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="43">
+        <v>45154</v>
+      </c>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="U5" s="3"/>
@@ -4506,304 +4848,304 @@
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66" t="s">
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66" t="s">
+      <c r="J6" s="59"/>
+      <c r="K6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="66"/>
+      <c r="L6" s="59"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="66" t="s">
+      <c r="N6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="67" t="s">
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="56" t="s">
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="56"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60" t="s">
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="61" t="s">
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61">
+      <c r="J7" s="54"/>
+      <c r="K7" s="54">
         <v>2</v>
       </c>
-      <c r="L7" s="61"/>
+      <c r="L7" s="54"/>
       <c r="M7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="61" t="s">
+      <c r="N7" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="62" t="s">
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="63"/>
-      <c r="S7" s="63"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="65"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="65"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60" t="s">
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="61" t="s">
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61">
+      <c r="J8" s="54"/>
+      <c r="K8" s="54">
         <v>2</v>
       </c>
-      <c r="L8" s="61"/>
+      <c r="L8" s="54"/>
       <c r="M8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="61" t="s">
+      <c r="N8" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="62" t="s">
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="63"/>
-      <c r="S8" s="63"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="65"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="65"/>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="65"/>
-      <c r="AA8" s="65"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60" t="s">
+      <c r="B9" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61">
-        <v>4</v>
-      </c>
-      <c r="L9" s="61"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="54"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="61" t="s">
+      <c r="N9" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="63"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="65"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="60" t="s">
-        <v>183</v>
-      </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60" t="s">
+      <c r="B10" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61">
-        <v>4</v>
-      </c>
-      <c r="L10" s="61"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="54"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="61" t="s">
+      <c r="N10" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="63"/>
-      <c r="S10" s="63"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="65"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60" t="s">
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61">
-        <v>7</v>
-      </c>
-      <c r="L11" s="61"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="L11" s="54"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="61" t="s">
+      <c r="N11" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="63"/>
-      <c r="S11" s="63"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="65"/>
-      <c r="X11" s="65"/>
-      <c r="Y11" s="65"/>
-      <c r="Z11" s="65"/>
-      <c r="AA11" s="65"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60" t="s">
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="61" t="s">
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61" t="s">
+      <c r="J12" s="54"/>
+      <c r="K12" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="61"/>
+      <c r="L12" s="54"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="61" t="s">
+      <c r="N12" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="63"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="65" t="s">
-        <v>177</v>
-      </c>
-      <c r="V12" s="65"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="65"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="61">
@@ -4876,10 +5218,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9F0380-6A5A-442D-8FC4-55232AE4172E}">
-  <dimension ref="A1:AA12"/>
+  <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U6" sqref="U6:AA6"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4891,68 +5233,68 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="38" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="39"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="41" t="s">
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="38" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="39"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="44">
+      <c r="S2" s="37"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="43">
         <v>45146</v>
       </c>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
@@ -4961,64 +5303,64 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="38" t="s">
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="39"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="41" t="s">
+      <c r="S3" s="37"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="38" t="s">
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="39"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="44">
-        <v>45148</v>
-      </c>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="43">
+        <v>45154</v>
+      </c>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="U5" s="3"/>
@@ -5032,305 +5374,461 @@
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66" t="s">
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66" t="s">
+      <c r="J6" s="59"/>
+      <c r="K6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="66"/>
+      <c r="L6" s="59"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="66" t="s">
+      <c r="N6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="67" t="s">
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="56" t="s">
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="56"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="57" t="s">
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="G7" s="58"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="61" t="s">
+      <c r="G7" s="61"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61">
+      <c r="J7" s="54"/>
+      <c r="K7" s="54">
         <v>5</v>
       </c>
-      <c r="L7" s="61"/>
+      <c r="L7" s="54"/>
       <c r="M7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="61" t="s">
+      <c r="N7" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="62" t="s">
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="63"/>
-      <c r="S7" s="63"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="65" t="s">
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="V7" s="65"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="65"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="57" t="s">
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="58"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="61" t="s">
+      <c r="G8" s="61"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61">
+      <c r="J8" s="54"/>
+      <c r="K8" s="54">
         <v>200</v>
       </c>
-      <c r="L8" s="61"/>
+      <c r="L8" s="54"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="61" t="s">
+      <c r="N8" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="63"/>
-      <c r="S8" s="63"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="65"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="65"/>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="65"/>
-      <c r="AA8" s="65"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="57" t="s">
+      <c r="B9" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="58"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61">
-        <v>4</v>
-      </c>
-      <c r="L9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="54"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="61" t="s">
+      <c r="N9" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="63"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="74"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="65"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="63"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="60" t="s">
-        <v>183</v>
-      </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="57" t="s">
+      <c r="B10" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="58"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61">
-        <v>4</v>
-      </c>
-      <c r="L10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="54"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="61" t="s">
+      <c r="N10" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="63"/>
-      <c r="S10" s="63"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="65"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="75" t="s">
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="G11" s="58"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="61" t="s">
+      <c r="G11" s="61"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61">
+      <c r="J11" s="54"/>
+      <c r="K11" s="54">
         <v>200</v>
       </c>
-      <c r="L11" s="61"/>
+      <c r="L11" s="54"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="63"/>
-      <c r="S11" s="63"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="74" t="s">
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="V11" s="65"/>
-      <c r="W11" s="65"/>
-      <c r="X11" s="65"/>
-      <c r="Y11" s="65"/>
-      <c r="Z11" s="65"/>
-      <c r="AA11" s="65"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60" t="s">
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="61" t="s">
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61" t="s">
+      <c r="J12" s="54"/>
+      <c r="K12" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="61"/>
+      <c r="L12" s="54"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="61" t="s">
+      <c r="N12" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="63"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="65" t="s">
-        <v>177</v>
-      </c>
-      <c r="V12" s="65"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="65"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="58"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>7</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="54"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="58"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <v>8</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54">
+        <v>6</v>
+      </c>
+      <c r="L14" s="54"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="58"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>9</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="54"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="58"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>10</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54">
+        <v>6</v>
+      </c>
+      <c r="L16" s="54"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="58"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
+  <mergeCells count="89">
     <mergeCell ref="Q11:T11"/>
     <mergeCell ref="U11:AA11"/>
     <mergeCell ref="B12:E12"/>
@@ -5392,572 +5890,6 @@
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="N9:P9"/>
-  </mergeCells>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79AA1B0E-65A6-441D-990E-73926E3709B8}">
-  <dimension ref="A1:AA30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="39"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="70" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" s="39"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="44">
-        <v>45146</v>
-      </c>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="73" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" s="39"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="S4" s="39"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="44">
-        <v>45148</v>
-      </c>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="15"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="66"/>
-      <c r="M6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="56"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61">
-        <v>5</v>
-      </c>
-      <c r="L7" s="61"/>
-      <c r="M7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="R7" s="63"/>
-      <c r="S7" s="63"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="65"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="65"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
-        <v>2</v>
-      </c>
-      <c r="B8" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61">
-        <v>1</v>
-      </c>
-      <c r="L8" s="61"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="63"/>
-      <c r="S8" s="63"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="65"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="65"/>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="65"/>
-      <c r="AA8" s="65"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
-        <v>3</v>
-      </c>
-      <c r="B9" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="58"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="61"/>
-      <c r="K9" s="62">
-        <v>1</v>
-      </c>
-      <c r="L9" s="64"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" s="63"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="63"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="75"/>
-      <c r="V9" s="78"/>
-      <c r="W9" s="78"/>
-      <c r="X9" s="78"/>
-      <c r="Y9" s="78"/>
-      <c r="Z9" s="78"/>
-      <c r="AA9" s="79"/>
-    </row>
-    <row r="10" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
-        <v>4</v>
-      </c>
-      <c r="B10" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61">
-        <v>200</v>
-      </c>
-      <c r="L10" s="61"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10" s="63"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="61"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="65"/>
-    </row>
-    <row r="11" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
-        <v>5</v>
-      </c>
-      <c r="B11" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61">
-        <v>4</v>
-      </c>
-      <c r="L11" s="61"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="61"/>
-      <c r="T11" s="61"/>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="65"/>
-      <c r="X11" s="65"/>
-      <c r="Y11" s="65"/>
-      <c r="Z11" s="65"/>
-      <c r="AA11" s="65"/>
-    </row>
-    <row r="12" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
-        <v>6</v>
-      </c>
-      <c r="B12" s="60" t="s">
-        <v>183</v>
-      </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61">
-        <v>4</v>
-      </c>
-      <c r="L12" s="61"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="61"/>
-      <c r="T12" s="61"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="65"/>
-    </row>
-    <row r="13" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
-        <v>7</v>
-      </c>
-      <c r="B13" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61">
-        <v>200</v>
-      </c>
-      <c r="L13" s="61"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="61"/>
-      <c r="U13" s="65"/>
-      <c r="V13" s="65"/>
-      <c r="W13" s="65"/>
-      <c r="X13" s="65"/>
-      <c r="Y13" s="65"/>
-      <c r="Z13" s="65"/>
-      <c r="AA13" s="65"/>
-    </row>
-    <row r="14" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="2">
-        <v>8</v>
-      </c>
-      <c r="B14" s="60" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="61"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="63"/>
-      <c r="S14" s="63"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="65" t="s">
-        <v>177</v>
-      </c>
-      <c r="V14" s="65"/>
-      <c r="W14" s="65"/>
-      <c r="X14" s="65"/>
-      <c r="Y14" s="65"/>
-      <c r="Z14" s="65"/>
-      <c r="AA14" s="65"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A30" s="13"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="77"/>
-      <c r="O30" s="77"/>
-      <c r="P30" s="77"/>
-      <c r="Q30" s="77"/>
-      <c r="R30" s="77"/>
-      <c r="S30" s="77"/>
-      <c r="T30" s="77"/>
-      <c r="U30" s="76"/>
-      <c r="V30" s="76"/>
-      <c r="W30" s="76"/>
-      <c r="X30" s="76"/>
-      <c r="Y30" s="76"/>
-      <c r="Z30" s="76"/>
-      <c r="AA30" s="76"/>
-    </row>
-  </sheetData>
-  <mergeCells count="82">
     <mergeCell ref="Q13:T13"/>
     <mergeCell ref="U13:AA13"/>
     <mergeCell ref="B14:E14"/>
@@ -5972,9 +5904,756 @@
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="N13:P13"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="U11:AA11"/>
-    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="U15:AA15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="U16:AA16"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N15:P15"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79AA1B0E-65A6-441D-990E-73926E3709B8}">
+  <dimension ref="A1:AA30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A2" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="37"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="43">
+        <v>45146</v>
+      </c>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="37"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" s="37"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="43">
+        <v>45154</v>
+      </c>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="15"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="59"/>
+      <c r="M6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54">
+        <v>5</v>
+      </c>
+      <c r="L7" s="54"/>
+      <c r="M7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54">
+        <v>1</v>
+      </c>
+      <c r="L8" s="54"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="61"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="54"/>
+      <c r="K9" s="55">
+        <v>1</v>
+      </c>
+      <c r="L9" s="57"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="56"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="67"/>
+      <c r="W9" s="67"/>
+      <c r="X9" s="67"/>
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="67"/>
+      <c r="AA9" s="68"/>
+    </row>
+    <row r="10" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54">
+        <v>200</v>
+      </c>
+      <c r="L10" s="54"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="56"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
+    </row>
+    <row r="11" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="54"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
+    </row>
+    <row r="12" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="54"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="58"/>
+    </row>
+    <row r="13" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>7</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54">
+        <v>200</v>
+      </c>
+      <c r="L13" s="54"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="58"/>
+    </row>
+    <row r="14" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <v>8</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="54"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="58"/>
+    </row>
+    <row r="15" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>9</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="54"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="58"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>10</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54">
+        <v>6</v>
+      </c>
+      <c r="L16" s="54"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="58"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>11</v>
+      </c>
+      <c r="B17" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="54"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="58"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="58"/>
+      <c r="X17" s="58"/>
+      <c r="Y17" s="58"/>
+      <c r="Z17" s="58"/>
+      <c r="AA17" s="58"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A18" s="2">
+        <v>12</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54">
+        <v>6</v>
+      </c>
+      <c r="L18" s="54"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="57"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="58"/>
+      <c r="Y18" s="58"/>
+      <c r="Z18" s="58"/>
+      <c r="AA18" s="58"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A30" s="13"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="66"/>
+      <c r="P30" s="66"/>
+      <c r="Q30" s="66"/>
+      <c r="R30" s="66"/>
+      <c r="S30" s="66"/>
+      <c r="T30" s="66"/>
+      <c r="U30" s="65"/>
+      <c r="V30" s="65"/>
+      <c r="W30" s="65"/>
+      <c r="X30" s="65"/>
+      <c r="Y30" s="65"/>
+      <c r="Z30" s="65"/>
+      <c r="AA30" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="110">
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="U13:AA13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="U14:AA14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N13:P13"/>
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:L12"/>
@@ -5986,6 +6665,11 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="N11:P11"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
     <mergeCell ref="E1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="U1:Y1"/>
@@ -5993,11 +6677,13 @@
     <mergeCell ref="E2:Q2"/>
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:T8"/>
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="U6:AA6"/>
     <mergeCell ref="B7:E7"/>
@@ -6012,13 +6698,13 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="N6:P6"/>
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="U30:AA30"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="Q30:T30"/>
     <mergeCell ref="U9:AA9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="F10:H10"/>
@@ -6033,13 +6719,37 @@
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="N9:P9"/>
     <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="U30:AA30"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="Q30:T30"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="U15:AA15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="U16:AA16"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="U17:AA17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="U18:AA18"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="N17:P17"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6051,484 +6761,478 @@
   <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:H13"/>
+      <selection activeCell="I13" sqref="I13:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="38" t="s">
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="39"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="41" t="s">
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
       <c r="Z1" s="29"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="36" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="38" t="s">
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="39"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="44">
+      <c r="S2" s="37"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="43">
         <v>45146</v>
       </c>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
       <c r="Z2" s="29"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="51" t="s">
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="38" t="s">
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="39"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
       <c r="Z3" s="29"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="38" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="39"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="43">
+        <v>45154</v>
+      </c>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
       <c r="Z4" s="29"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66" t="s">
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66" t="s">
+      <c r="J6" s="59"/>
+      <c r="K6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="66"/>
+      <c r="L6" s="59"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="66" t="s">
+      <c r="N6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="67" t="s">
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="56" t="s">
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="56"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60" t="s">
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61">
-        <v>2</v>
-      </c>
-      <c r="L7" s="61"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="54"/>
       <c r="M7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="61" t="s">
+      <c r="N7" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="63"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="65"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="65"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60" t="s">
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61">
-        <v>2</v>
-      </c>
-      <c r="L8" s="61"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="54"/>
       <c r="M8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="61" t="s">
+      <c r="N8" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="63"/>
-      <c r="S8" s="63"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="65"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="65"/>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="65"/>
-      <c r="AA8" s="65"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60" t="s">
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61">
-        <v>4</v>
-      </c>
-      <c r="L9" s="61"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="54"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="63"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="65"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60" t="s">
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61">
-        <v>4</v>
-      </c>
-      <c r="L10" s="61"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="54"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="63"/>
-      <c r="S10" s="63"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="65"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60" t="s">
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61">
-        <v>4</v>
-      </c>
-      <c r="L11" s="61"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="54"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="63"/>
-      <c r="S11" s="63"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="65"/>
-      <c r="X11" s="65"/>
-      <c r="Y11" s="65"/>
-      <c r="Z11" s="65"/>
-      <c r="AA11" s="65"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60" t="s">
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61">
-        <v>4</v>
-      </c>
-      <c r="L12" s="61"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="54"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="63"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="65"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="58"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>7</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60" t="s">
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61">
-        <v>4</v>
-      </c>
-      <c r="L13" s="61"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="54"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="63"/>
-      <c r="S13" s="63"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="65"/>
-      <c r="V13" s="65"/>
-      <c r="W13" s="65"/>
-      <c r="X13" s="65"/>
-      <c r="Y13" s="65"/>
-      <c r="Z13" s="65"/>
-      <c r="AA13" s="65"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="70">
@@ -6612,856 +7316,851 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E86C57-CDFB-437D-99D0-0063AA09A240}">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U3" sqref="U3:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="38" t="s">
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="39"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="41" t="s">
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
       <c r="Z1" s="29"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="36" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="38" t="s">
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="39"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="44">
+      <c r="S2" s="37"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="43">
         <v>45146</v>
       </c>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
       <c r="Z2" s="29"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="51" t="s">
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="38" t="s">
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="39"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="41" t="s">
+      <c r="S3" s="37"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
       <c r="Z3" s="29"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="38" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="39"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="44">
-        <v>45148</v>
-      </c>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="43">
+        <v>45154</v>
+      </c>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
       <c r="Z4" s="29"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66" t="s">
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66" t="s">
+      <c r="J6" s="59"/>
+      <c r="K6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="66"/>
+      <c r="L6" s="59"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="66" t="s">
+      <c r="N6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="67" t="s">
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="56" t="s">
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="56"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60" t="s">
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="61" t="s">
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61">
+      <c r="J7" s="54"/>
+      <c r="K7" s="54">
         <v>6</v>
       </c>
-      <c r="L7" s="61"/>
+      <c r="L7" s="54"/>
       <c r="M7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="61" t="s">
+      <c r="N7" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="63"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="65"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="65"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60" t="s">
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="61" t="s">
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61">
+      <c r="J8" s="54"/>
+      <c r="K8" s="54">
         <v>20</v>
       </c>
-      <c r="L8" s="61"/>
+      <c r="L8" s="54"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="61" t="s">
+      <c r="N8" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="63"/>
-      <c r="S8" s="63"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="65"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="65"/>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="65"/>
-      <c r="AA8" s="65"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60" t="s">
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="61" t="s">
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61" t="s">
+      <c r="J9" s="54"/>
+      <c r="K9" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="61"/>
+      <c r="L9" s="54"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="61" t="s">
+      <c r="N9" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="63"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="65"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60" t="s">
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="61" t="s">
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61" t="s">
+      <c r="J10" s="54"/>
+      <c r="K10" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="61"/>
+      <c r="L10" s="54"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="61" t="s">
+      <c r="N10" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="63"/>
-      <c r="S10" s="63"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="65"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60" t="s">
+      <c r="B11" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61">
-        <v>4</v>
-      </c>
-      <c r="L11" s="61"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="54"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="61" t="s">
+      <c r="N11" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="63"/>
-      <c r="S11" s="63"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="65"/>
-      <c r="X11" s="65"/>
-      <c r="Y11" s="65"/>
-      <c r="Z11" s="65"/>
-      <c r="AA11" s="65"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="60" t="s">
-        <v>183</v>
-      </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60" t="s">
+      <c r="B12" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61">
-        <v>4</v>
-      </c>
-      <c r="L12" s="61"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="54"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="61" t="s">
+      <c r="N12" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="63"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="65"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="58"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>7</v>
       </c>
-      <c r="B13" s="57" t="s">
-        <v>181</v>
-      </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="61" t="s">
+      <c r="B13" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61">
-        <v>30</v>
-      </c>
-      <c r="L13" s="61"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54">
+        <v>10</v>
+      </c>
+      <c r="L13" s="54"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="61" t="s">
+      <c r="N13" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="63"/>
-      <c r="S13" s="63"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="65"/>
-      <c r="V13" s="65"/>
-      <c r="W13" s="65"/>
-      <c r="X13" s="65"/>
-      <c r="Y13" s="65"/>
-      <c r="Z13" s="65"/>
-      <c r="AA13" s="65"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="58"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>8</v>
       </c>
-      <c r="B14" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="65" t="s">
+      <c r="B14" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61">
-        <v>2</v>
-      </c>
-      <c r="L14" s="61"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="54"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="61" t="s">
+      <c r="N14" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="63"/>
-      <c r="S14" s="63"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="65"/>
-      <c r="V14" s="65"/>
-      <c r="W14" s="65"/>
-      <c r="X14" s="65"/>
-      <c r="Y14" s="65"/>
-      <c r="Z14" s="65"/>
-      <c r="AA14" s="65"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="58"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>9</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60" t="s">
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61">
-        <v>2</v>
-      </c>
-      <c r="L15" s="61"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="54"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="63"/>
-      <c r="S15" s="63"/>
-      <c r="T15" s="64"/>
-      <c r="U15" s="65"/>
-      <c r="V15" s="65"/>
-      <c r="W15" s="65"/>
-      <c r="X15" s="65"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="65"/>
-      <c r="AA15" s="65"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="58"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>10</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60" t="s">
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61">
-        <v>2</v>
-      </c>
-      <c r="L16" s="61"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="54"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="62"/>
-      <c r="R16" s="63"/>
-      <c r="S16" s="63"/>
-      <c r="T16" s="64"/>
-      <c r="U16" s="65"/>
-      <c r="V16" s="65"/>
-      <c r="W16" s="65"/>
-      <c r="X16" s="65"/>
-      <c r="Y16" s="65"/>
-      <c r="Z16" s="65"/>
-      <c r="AA16" s="65"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="58"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>11</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="61"/>
+      <c r="L17" s="54"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="62"/>
-      <c r="R17" s="63"/>
-      <c r="S17" s="63"/>
-      <c r="T17" s="64"/>
-      <c r="U17" s="65"/>
-      <c r="V17" s="65"/>
-      <c r="W17" s="65"/>
-      <c r="X17" s="65"/>
-      <c r="Y17" s="65"/>
-      <c r="Z17" s="65"/>
-      <c r="AA17" s="65"/>
+      <c r="N17" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="V17" s="58"/>
+      <c r="W17" s="58"/>
+      <c r="X17" s="58"/>
+      <c r="Y17" s="58"/>
+      <c r="Z17" s="58"/>
+      <c r="AA17" s="58"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>12</v>
       </c>
-      <c r="B18" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61">
-        <v>6</v>
-      </c>
-      <c r="L18" s="61"/>
+      <c r="B18" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="54"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="62"/>
-      <c r="R18" s="63"/>
-      <c r="S18" s="63"/>
-      <c r="T18" s="64"/>
-      <c r="U18" s="65"/>
-      <c r="V18" s="65"/>
-      <c r="W18" s="65"/>
-      <c r="X18" s="65"/>
-      <c r="Y18" s="65"/>
-      <c r="Z18" s="65"/>
-      <c r="AA18" s="65"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="57"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="58"/>
+      <c r="Y18" s="58"/>
+      <c r="Z18" s="58"/>
+      <c r="AA18" s="58"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>13</v>
       </c>
-      <c r="B19" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" s="61"/>
+      <c r="B19" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54">
+        <v>6</v>
+      </c>
+      <c r="L19" s="54"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="63"/>
-      <c r="S19" s="63"/>
-      <c r="T19" s="64"/>
-      <c r="U19" s="65"/>
-      <c r="V19" s="65"/>
-      <c r="W19" s="65"/>
-      <c r="X19" s="65"/>
-      <c r="Y19" s="65"/>
-      <c r="Z19" s="65"/>
-      <c r="AA19" s="65"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="58"/>
+      <c r="V19" s="58"/>
+      <c r="W19" s="58"/>
+      <c r="X19" s="58"/>
+      <c r="Y19" s="58"/>
+      <c r="Z19" s="58"/>
+      <c r="AA19" s="58"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>14</v>
       </c>
-      <c r="B20" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="60" t="s">
-        <v>130</v>
-      </c>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61">
-        <v>6</v>
-      </c>
-      <c r="L20" s="61"/>
+      <c r="B20" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="54"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="63"/>
-      <c r="S20" s="63"/>
-      <c r="T20" s="64"/>
-      <c r="U20" s="65"/>
-      <c r="V20" s="65"/>
-      <c r="W20" s="65"/>
-      <c r="X20" s="65"/>
-      <c r="Y20" s="65"/>
-      <c r="Z20" s="65"/>
-      <c r="AA20" s="65"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="58"/>
+      <c r="W20" s="58"/>
+      <c r="X20" s="58"/>
+      <c r="Y20" s="58"/>
+      <c r="Z20" s="58"/>
+      <c r="AA20" s="58"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>15</v>
       </c>
-      <c r="B21" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" s="61"/>
+      <c r="B21" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54">
+        <v>6</v>
+      </c>
+      <c r="L21" s="54"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="O21" s="61"/>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="62"/>
-      <c r="R21" s="63"/>
-      <c r="S21" s="63"/>
-      <c r="T21" s="64"/>
-      <c r="U21" s="65" t="s">
-        <v>177</v>
-      </c>
-      <c r="V21" s="65"/>
-      <c r="W21" s="65"/>
-      <c r="X21" s="65"/>
-      <c r="Y21" s="65"/>
-      <c r="Z21" s="65"/>
-      <c r="AA21" s="65"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="58"/>
+      <c r="W21" s="58"/>
+      <c r="X21" s="58"/>
+      <c r="Y21" s="58"/>
+      <c r="Z21" s="58"/>
+      <c r="AA21" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="126">
-    <mergeCell ref="Q15:T15"/>
     <mergeCell ref="U15:AA15"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="U19:AA19"/>
+    <mergeCell ref="B19:E19"/>
     <mergeCell ref="U20:AA20"/>
+    <mergeCell ref="U21:AA21"/>
     <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="U17:AA17"/>
+    <mergeCell ref="B15:E15"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="N21:P21"/>
     <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="U21:AA21"/>
-    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="U19:AA19"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="U16:AA16"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N18:P18"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="N20:P20"/>
     <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="U18:AA18"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="U16:AA16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="N17:P17"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="N19:P19"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="N18:P18"/>
     <mergeCell ref="U12:AA12"/>
-    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="K13:L13"/>
@@ -7482,8 +8181,8 @@
     <mergeCell ref="N14:P14"/>
     <mergeCell ref="Q14:T14"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="U17:AA17"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="U18:AA18"/>
     <mergeCell ref="U10:AA10"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="F11:H11"/>
@@ -7498,6 +8197,11 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="N10:P10"/>
     <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q15:T15"/>
     <mergeCell ref="U8:AA8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F9:H9"/>
@@ -7551,402 +8255,406 @@
   <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:H9"/>
+      <selection activeCell="B9" sqref="B9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="38" t="s">
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="39"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="41" t="s">
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
       <c r="Z1" s="29"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="36" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="38" t="s">
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="39"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="44">
+      <c r="S2" s="37"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="43">
         <v>45146</v>
       </c>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
       <c r="Z2" s="29"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="51" t="s">
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="38" t="s">
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="39"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
       <c r="Z3" s="29"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="38" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="39"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="43">
+        <v>45154</v>
+      </c>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
       <c r="Z4" s="29"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66" t="s">
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66" t="s">
+      <c r="J6" s="59"/>
+      <c r="K6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="66"/>
+      <c r="L6" s="59"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="66" t="s">
+      <c r="N6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="67" t="s">
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="56" t="s">
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="56"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60" t="s">
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="61" t="s">
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61">
+      <c r="J7" s="54"/>
+      <c r="K7" s="54">
         <v>6</v>
       </c>
-      <c r="L7" s="61"/>
+      <c r="L7" s="54"/>
       <c r="M7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="61" t="s">
+      <c r="N7" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="63"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="65"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="65"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60" t="s">
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="61" t="s">
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61">
+      <c r="J8" s="54"/>
+      <c r="K8" s="54">
         <v>5</v>
       </c>
-      <c r="L8" s="61"/>
+      <c r="L8" s="54"/>
       <c r="M8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="61" t="s">
+      <c r="N8" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="63"/>
-      <c r="S8" s="63"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="65"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="65"/>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="65"/>
-      <c r="AA8" s="65"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="61" t="s">
+      <c r="B9" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53" t="s">
+        <v>183</v>
+      </c>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61" t="s">
+      <c r="J9" s="54"/>
+      <c r="K9" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="61"/>
+      <c r="L9" s="54"/>
       <c r="M9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="61" t="s">
+      <c r="N9" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="63"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="65"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60" t="s">
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="61" t="s">
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61" t="s">
+      <c r="J10" s="54"/>
+      <c r="K10" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="61"/>
+      <c r="L10" s="54"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="61" t="s">
+      <c r="N10" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="63"/>
-      <c r="S10" s="63"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="65"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60" t="s">
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="61" t="s">
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61">
+      <c r="J11" s="54"/>
+      <c r="K11" s="54">
         <v>200</v>
       </c>
-      <c r="L11" s="61"/>
+      <c r="L11" s="54"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="63"/>
-      <c r="S11" s="63"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="65"/>
-      <c r="X11" s="65"/>
-      <c r="Y11" s="65"/>
-      <c r="Z11" s="65"/>
-      <c r="AA11" s="65"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="56">

--- a/設計書/DB設計書.xlsx
+++ b/設計書/DB設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m-matsuka\Desktop\GitHub_クローン\company_evaluation\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BE3548-A48D-441B-96F8-D2A39BF52A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3C696E-3C1F-4D32-88AE-4288C530417F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="7" xr2:uid="{49359F61-E175-4E64-83B2-4241FAD3E8F3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="5" xr2:uid="{49359F61-E175-4E64-83B2-4241FAD3E8F3}"/>
   </bookViews>
   <sheets>
     <sheet name="E-R図" sheetId="10" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="196">
   <si>
     <t>テーブル論理名</t>
     <rPh sb="4" eb="6">
@@ -1124,6 +1124,10 @@
   </si>
   <si>
     <t>ユーザテーブル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>TM_user</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1460,6 +1464,54 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1493,81 +1545,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1600,6 +1577,33 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2484,7 +2488,7 @@
   <dimension ref="A1:AI30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2600,13 +2604,13 @@
         <v>178</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>151</v>
+        <v>98</v>
       </c>
       <c r="F6" s="31" t="s">
         <v>151</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.4">
@@ -2876,92 +2880,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DC8C6B-44BC-428E-8430-43D087E92B4D}">
   <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="76" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="67" t="s">
         <v>162</v>
       </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="48" t="s">
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="51" t="s">
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
       <c r="Z1" s="29"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="48" t="s">
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="52">
+      <c r="S2" s="37"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="43">
         <v>45146</v>
       </c>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
       <c r="Z2" s="29"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="79" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="70" t="s">
         <v>169</v>
       </c>
       <c r="F3" s="45"/>
@@ -2976,25 +2980,25 @@
       <c r="O3" s="45"/>
       <c r="P3" s="45"/>
       <c r="Q3" s="45"/>
-      <c r="R3" s="48" t="s">
+      <c r="R3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="49"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="51" t="s">
+      <c r="S3" s="37"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
       <c r="Z3" s="29"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A4" s="73"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="75"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="46"/>
       <c r="F4" s="47"/>
       <c r="G4" s="47"/>
@@ -3008,265 +3012,242 @@
       <c r="O4" s="47"/>
       <c r="P4" s="47"/>
       <c r="Q4" s="47"/>
-      <c r="R4" s="48" t="s">
+      <c r="R4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="52">
+      <c r="S4" s="37"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="43">
         <v>45154</v>
       </c>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
       <c r="Z4" s="29"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43" t="s">
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43" t="s">
+      <c r="J6" s="59"/>
+      <c r="K6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="43"/>
+      <c r="L6" s="59"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="N6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="33" t="s">
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="36" t="s">
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37" t="s">
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38" t="s">
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38">
+      <c r="J7" s="54"/>
+      <c r="K7" s="54">
         <v>6</v>
       </c>
-      <c r="L7" s="38"/>
+      <c r="L7" s="54"/>
       <c r="M7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="38" t="s">
+      <c r="N7" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37" t="s">
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="38" t="s">
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38">
+      <c r="J8" s="54"/>
+      <c r="K8" s="54">
         <v>5</v>
       </c>
-      <c r="L8" s="38"/>
+      <c r="L8" s="54"/>
       <c r="M8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="38" t="s">
+      <c r="N8" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="42"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="53" t="s">
         <v>191</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37" t="s">
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="38" t="s">
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38" t="s">
+      <c r="J9" s="54"/>
+      <c r="K9" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="38"/>
+      <c r="L9" s="54"/>
       <c r="M9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="38" t="s">
+      <c r="N9" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="42"/>
-      <c r="AA9" s="42"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37" t="s">
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="38" t="s">
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38">
+      <c r="J10" s="54"/>
+      <c r="K10" s="54">
         <v>200</v>
       </c>
-      <c r="L10" s="38"/>
+      <c r="L10" s="54"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="42"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
     <mergeCell ref="Q10:T10"/>
     <mergeCell ref="U10:AA10"/>
     <mergeCell ref="U8:AA8"/>
@@ -3283,11 +3264,34 @@
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="N8:P8"/>
     <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3305,85 +3309,85 @@
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="76" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="48" t="s">
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="51" t="s">
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
       <c r="Z1" s="14"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="48" t="s">
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="52">
+      <c r="S2" s="37"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="43">
         <v>45069</v>
       </c>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
       <c r="Z2" s="16"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="79" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="70" t="s">
         <v>33</v>
       </c>
       <c r="F3" s="45"/>
@@ -3398,25 +3402,25 @@
       <c r="O3" s="45"/>
       <c r="P3" s="45"/>
       <c r="Q3" s="45"/>
-      <c r="R3" s="48" t="s">
+      <c r="R3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="49"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="51" t="s">
+      <c r="S3" s="37"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
       <c r="Z3" s="17"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A4" s="73"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="75"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="46"/>
       <c r="F4" s="47"/>
       <c r="G4" s="47"/>
@@ -3430,454 +3434,538 @@
       <c r="O4" s="47"/>
       <c r="P4" s="47"/>
       <c r="Q4" s="47"/>
-      <c r="R4" s="48" t="s">
+      <c r="R4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="52">
+      <c r="S4" s="37"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="43">
         <v>45072</v>
       </c>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
       <c r="Z4" s="18"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43" t="s">
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43" t="s">
+      <c r="J6" s="59"/>
+      <c r="K6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="43"/>
+      <c r="L6" s="59"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="N6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="33" t="s">
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="36" t="s">
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37" t="s">
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38" t="s">
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38">
+      <c r="J7" s="54"/>
+      <c r="K7" s="54">
         <v>6</v>
       </c>
-      <c r="L7" s="38"/>
+      <c r="L7" s="54"/>
       <c r="M7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="38" t="s">
+      <c r="N7" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="39" t="s">
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37" t="s">
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="38" t="s">
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38">
+      <c r="J8" s="54"/>
+      <c r="K8" s="54">
         <v>2</v>
       </c>
-      <c r="L8" s="38"/>
+      <c r="L8" s="54"/>
       <c r="M8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="38" t="s">
+      <c r="N8" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="39" t="s">
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="42"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37" t="s">
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="38" t="s">
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38" t="s">
+      <c r="J9" s="54"/>
+      <c r="K9" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="38"/>
+      <c r="L9" s="54"/>
       <c r="M9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="38" t="s">
+      <c r="N9" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="39" t="s">
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="42" t="s">
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="42"/>
-      <c r="AA9" s="42"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37" t="s">
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="38" t="s">
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38">
+      <c r="J10" s="54"/>
+      <c r="K10" s="54">
         <v>3</v>
       </c>
-      <c r="L10" s="38"/>
+      <c r="L10" s="54"/>
       <c r="M10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N10" s="38" t="s">
+      <c r="N10" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38" t="s">
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="42"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="13"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
       <c r="M11" s="13"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="65"/>
-      <c r="X11" s="65"/>
-      <c r="Y11" s="65"/>
-      <c r="Z11" s="65"/>
-      <c r="AA11" s="65"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="77"/>
+      <c r="T11" s="77"/>
+      <c r="U11" s="76"/>
+      <c r="V11" s="76"/>
+      <c r="W11" s="76"/>
+      <c r="X11" s="76"/>
+      <c r="Y11" s="76"/>
+      <c r="Z11" s="76"/>
+      <c r="AA11" s="76"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="13"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
       <c r="M12" s="13"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="65"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="77"/>
+      <c r="R12" s="77"/>
+      <c r="S12" s="77"/>
+      <c r="T12" s="77"/>
+      <c r="U12" s="76"/>
+      <c r="V12" s="76"/>
+      <c r="W12" s="76"/>
+      <c r="X12" s="76"/>
+      <c r="Y12" s="76"/>
+      <c r="Z12" s="76"/>
+      <c r="AA12" s="76"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="13"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
       <c r="M13" s="13"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="65"/>
-      <c r="V13" s="65"/>
-      <c r="W13" s="65"/>
-      <c r="X13" s="65"/>
-      <c r="Y13" s="65"/>
-      <c r="Z13" s="65"/>
-      <c r="AA13" s="65"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="77"/>
+      <c r="R13" s="77"/>
+      <c r="S13" s="77"/>
+      <c r="T13" s="77"/>
+      <c r="U13" s="76"/>
+      <c r="V13" s="76"/>
+      <c r="W13" s="76"/>
+      <c r="X13" s="76"/>
+      <c r="Y13" s="76"/>
+      <c r="Z13" s="76"/>
+      <c r="AA13" s="76"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="13"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
       <c r="M14" s="13"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="65"/>
-      <c r="V14" s="65"/>
-      <c r="W14" s="65"/>
-      <c r="X14" s="65"/>
-      <c r="Y14" s="65"/>
-      <c r="Z14" s="65"/>
-      <c r="AA14" s="65"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="77"/>
+      <c r="T14" s="77"/>
+      <c r="U14" s="76"/>
+      <c r="V14" s="76"/>
+      <c r="W14" s="76"/>
+      <c r="X14" s="76"/>
+      <c r="Y14" s="76"/>
+      <c r="Z14" s="76"/>
+      <c r="AA14" s="76"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="13"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
       <c r="M15" s="13"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="66"/>
-      <c r="T15" s="66"/>
-      <c r="U15" s="65"/>
-      <c r="V15" s="65"/>
-      <c r="W15" s="65"/>
-      <c r="X15" s="65"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="65"/>
-      <c r="AA15" s="65"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="77"/>
+      <c r="P15" s="77"/>
+      <c r="Q15" s="77"/>
+      <c r="R15" s="77"/>
+      <c r="S15" s="77"/>
+      <c r="T15" s="77"/>
+      <c r="U15" s="76"/>
+      <c r="V15" s="76"/>
+      <c r="W15" s="76"/>
+      <c r="X15" s="76"/>
+      <c r="Y15" s="76"/>
+      <c r="Z15" s="76"/>
+      <c r="AA15" s="76"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="13"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
       <c r="M16" s="13"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="66"/>
-      <c r="T16" s="66"/>
-      <c r="U16" s="65"/>
-      <c r="V16" s="65"/>
-      <c r="W16" s="65"/>
-      <c r="X16" s="65"/>
-      <c r="Y16" s="65"/>
-      <c r="Z16" s="65"/>
-      <c r="AA16" s="65"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="77"/>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="77"/>
+      <c r="T16" s="77"/>
+      <c r="U16" s="76"/>
+      <c r="V16" s="76"/>
+      <c r="W16" s="76"/>
+      <c r="X16" s="76"/>
+      <c r="Y16" s="76"/>
+      <c r="Z16" s="76"/>
+      <c r="AA16" s="76"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="13"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
       <c r="M17" s="13"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="66"/>
-      <c r="S17" s="66"/>
-      <c r="T17" s="66"/>
-      <c r="U17" s="65"/>
-      <c r="V17" s="65"/>
-      <c r="W17" s="65"/>
-      <c r="X17" s="65"/>
-      <c r="Y17" s="65"/>
-      <c r="Z17" s="65"/>
-      <c r="AA17" s="65"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="77"/>
+      <c r="Q17" s="77"/>
+      <c r="R17" s="77"/>
+      <c r="S17" s="77"/>
+      <c r="T17" s="77"/>
+      <c r="U17" s="76"/>
+      <c r="V17" s="76"/>
+      <c r="W17" s="76"/>
+      <c r="X17" s="76"/>
+      <c r="Y17" s="76"/>
+      <c r="Z17" s="76"/>
+      <c r="AA17" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="98">
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="U17:AA17"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="U15:AA15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="U16:AA16"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="U13:AA13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="U14:AA14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="U12:AA12"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:T6"/>
     <mergeCell ref="U3:Y3"/>
     <mergeCell ref="R4:T4"/>
     <mergeCell ref="U4:Y4"/>
@@ -3892,90 +3980,6 @@
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="U2:Y2"/>
     <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="U11:AA11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="U12:AA12"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="U13:AA13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="U14:AA14"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="U15:AA15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="U16:AA16"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="U17:AA17"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3999,68 +4003,68 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="48" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="51" t="s">
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="54" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="48" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="52">
+      <c r="S2" s="37"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="43">
         <v>45148</v>
       </c>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
@@ -4084,18 +4088,18 @@
       <c r="O3" s="45"/>
       <c r="P3" s="45"/>
       <c r="Q3" s="45"/>
-      <c r="R3" s="48" t="s">
+      <c r="R3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="49"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="51" t="s">
+      <c r="S3" s="37"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
@@ -4115,18 +4119,18 @@
       <c r="O4" s="47"/>
       <c r="P4" s="47"/>
       <c r="Q4" s="47"/>
-      <c r="R4" s="48" t="s">
+      <c r="R4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="52">
+      <c r="S4" s="37"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="43">
         <v>45154</v>
       </c>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="U5" s="3"/>
@@ -4140,110 +4144,98 @@
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43" t="s">
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43" t="s">
+      <c r="J6" s="59"/>
+      <c r="K6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="43"/>
+      <c r="L6" s="59"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="N6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="33" t="s">
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="36" t="s">
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="53" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37" t="s">
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38" t="s">
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38" t="s">
+      <c r="J7" s="54"/>
+      <c r="K7" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="L7" s="38"/>
+      <c r="L7" s="54"/>
       <c r="M7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="38" t="s">
+      <c r="N7" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="39" t="s">
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="42" t="s">
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="U6:AA6"/>
     <mergeCell ref="B7:E7"/>
@@ -4258,6 +4250,18 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="N6:P6"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4281,68 +4285,68 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="48" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="51" t="s">
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="54" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="48" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="52">
+      <c r="S2" s="37"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="43">
         <v>45146</v>
       </c>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
@@ -4366,18 +4370,18 @@
       <c r="O3" s="45"/>
       <c r="P3" s="45"/>
       <c r="Q3" s="45"/>
-      <c r="R3" s="48" t="s">
+      <c r="R3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="49"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="51" t="s">
+      <c r="S3" s="37"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
@@ -4397,18 +4401,18 @@
       <c r="O4" s="47"/>
       <c r="P4" s="47"/>
       <c r="Q4" s="47"/>
-      <c r="R4" s="48" t="s">
+      <c r="R4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="52">
+      <c r="S4" s="37"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="43">
         <v>45154</v>
       </c>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="U5" s="3"/>
@@ -4422,319 +4426,342 @@
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43" t="s">
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43" t="s">
+      <c r="J6" s="59"/>
+      <c r="K6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="43"/>
+      <c r="L6" s="59"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="N6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="33" t="s">
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="36" t="s">
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37" t="s">
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38" t="s">
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38">
+      <c r="J7" s="54"/>
+      <c r="K7" s="54">
         <v>2</v>
       </c>
-      <c r="L7" s="38"/>
+      <c r="L7" s="54"/>
       <c r="M7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="38" t="s">
+      <c r="N7" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="39" t="s">
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37" t="s">
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="38" t="s">
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54" t="s">
         <v>187</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38" t="s">
+      <c r="J8" s="54"/>
+      <c r="K8" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="38"/>
+      <c r="L8" s="54"/>
       <c r="M8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="38" t="s">
+      <c r="N8" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="39" t="s">
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="42"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37" t="s">
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="38" t="s">
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38" t="s">
+      <c r="J9" s="54"/>
+      <c r="K9" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="38"/>
+      <c r="L9" s="54"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="38" t="s">
+      <c r="N9" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="42"/>
-      <c r="AA9" s="42"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37" t="s">
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="38" t="s">
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38" t="s">
+      <c r="J10" s="54"/>
+      <c r="K10" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="38"/>
+      <c r="L10" s="54"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="38" t="s">
+      <c r="N10" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="42"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37" t="s">
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="38" t="s">
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38" t="s">
+      <c r="J11" s="54"/>
+      <c r="K11" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="L11" s="38"/>
+      <c r="L11" s="54"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="38" t="s">
+      <c r="N11" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="42"/>
-      <c r="Z11" s="42"/>
-      <c r="AA11" s="42"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37" t="s">
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="38" t="s">
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38" t="s">
+      <c r="J12" s="54"/>
+      <c r="K12" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="38"/>
+      <c r="L12" s="54"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="38" t="s">
+      <c r="N12" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="42" t="s">
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="42"/>
-      <c r="Z12" s="42"/>
-      <c r="AA12" s="42"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="U12:AA12"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:T12"/>
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="U6:AA6"/>
     <mergeCell ref="B7:E7"/>
@@ -4749,41 +4776,18 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="N6:P6"/>
-    <mergeCell ref="U12:AA12"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="U11:AA11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4795,91 +4799,91 @@
   <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="76" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="48" t="s">
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="51" t="s">
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
       <c r="Z1" s="29"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="48" t="s">
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="52">
+      <c r="S2" s="37"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="43">
         <v>45146</v>
       </c>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
       <c r="Z2" s="29"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="79" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="70" t="s">
         <v>78</v>
       </c>
       <c r="F3" s="45"/>
@@ -4894,25 +4898,25 @@
       <c r="O3" s="45"/>
       <c r="P3" s="45"/>
       <c r="Q3" s="45"/>
-      <c r="R3" s="48" t="s">
+      <c r="R3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="49"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="51" t="s">
+      <c r="S3" s="37"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
       <c r="Z3" s="29"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A4" s="73"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="75"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="46"/>
       <c r="F4" s="47"/>
       <c r="G4" s="47"/>
@@ -4926,357 +4930,399 @@
       <c r="O4" s="47"/>
       <c r="P4" s="47"/>
       <c r="Q4" s="47"/>
-      <c r="R4" s="48" t="s">
+      <c r="R4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="52">
+      <c r="S4" s="37"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="43">
         <v>45154</v>
       </c>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
       <c r="Z4" s="29"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43" t="s">
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43" t="s">
+      <c r="J6" s="59"/>
+      <c r="K6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="43"/>
+      <c r="L6" s="59"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="N6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="33" t="s">
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="36" t="s">
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37" t="s">
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38" t="s">
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54" t="s">
         <v>187</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38" t="s">
+      <c r="J7" s="54"/>
+      <c r="K7" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="38"/>
+      <c r="L7" s="54"/>
       <c r="M7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="38" t="s">
+      <c r="N7" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37" t="s">
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="38" t="s">
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54" t="s">
         <v>187</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38" t="s">
+      <c r="J8" s="54"/>
+      <c r="K8" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="38"/>
+      <c r="L8" s="54"/>
       <c r="M8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="38" t="s">
+      <c r="N8" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="42"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37" t="s">
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="38" t="s">
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54" t="s">
         <v>187</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38" t="s">
+      <c r="J9" s="54"/>
+      <c r="K9" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="38"/>
+      <c r="L9" s="54"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="42"/>
-      <c r="AA9" s="42"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37" t="s">
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="38" t="s">
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54" t="s">
         <v>187</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38" t="s">
+      <c r="J10" s="54"/>
+      <c r="K10" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="38"/>
+      <c r="L10" s="54"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="42"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37" t="s">
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="38" t="s">
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54" t="s">
         <v>187</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38" t="s">
+      <c r="J11" s="54"/>
+      <c r="K11" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="38"/>
+      <c r="L11" s="54"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="42"/>
-      <c r="Z11" s="42"/>
-      <c r="AA11" s="42"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37" t="s">
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="38" t="s">
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="54" t="s">
         <v>187</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38" t="s">
+      <c r="J12" s="54"/>
+      <c r="K12" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="38"/>
+      <c r="L12" s="54"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="42"/>
-      <c r="Z12" s="42"/>
-      <c r="AA12" s="42"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="58"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>7</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37" t="s">
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="38" t="s">
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="54" t="s">
         <v>187</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38" t="s">
+      <c r="J13" s="54"/>
+      <c r="K13" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="38"/>
+      <c r="L13" s="54"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="42"/>
-      <c r="Z13" s="42"/>
-      <c r="AA13" s="42"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="U12:AA12"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="U13:AA13"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="R3:T3"/>
     <mergeCell ref="Q10:T10"/>
     <mergeCell ref="U10:AA10"/>
     <mergeCell ref="Q11:T11"/>
@@ -5291,55 +5337,13 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="N11:P11"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="U12:AA12"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="U13:AA13"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5350,8 +5354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D625D5-7720-4372-924A-B23A48904B15}">
   <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:Q4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5363,68 +5367,68 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
-      <c r="E1" s="54" t="s">
-        <v>184</v>
-      </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="48" t="s">
+      <c r="E1" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="51" t="s">
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="54" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="48" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="52">
+      <c r="S2" s="37"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="43">
         <v>45147</v>
       </c>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
@@ -5448,18 +5452,18 @@
       <c r="O3" s="45"/>
       <c r="P3" s="45"/>
       <c r="Q3" s="45"/>
-      <c r="R3" s="48" t="s">
+      <c r="R3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="49"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="51" t="s">
+      <c r="S3" s="37"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
@@ -5479,18 +5483,18 @@
       <c r="O4" s="47"/>
       <c r="P4" s="47"/>
       <c r="Q4" s="47"/>
-      <c r="R4" s="48" t="s">
+      <c r="R4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="52">
+      <c r="S4" s="37"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="43">
         <v>45154</v>
       </c>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="U5" s="3"/>
@@ -5504,236 +5508,231 @@
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43" t="s">
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43" t="s">
+      <c r="J6" s="59"/>
+      <c r="K6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="43"/>
+      <c r="L6" s="59"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="N6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="33" t="s">
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="36" t="s">
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37" t="s">
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38" t="s">
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38">
+      <c r="J7" s="54"/>
+      <c r="K7" s="54">
         <v>10</v>
       </c>
-      <c r="L7" s="38"/>
+      <c r="L7" s="54"/>
       <c r="M7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="38" t="s">
+      <c r="N7" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="39" t="s">
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37" t="s">
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="38" t="s">
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38">
+      <c r="J8" s="54"/>
+      <c r="K8" s="54">
         <v>20</v>
       </c>
-      <c r="L8" s="38"/>
+      <c r="L8" s="54"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="38" t="s">
+      <c r="N8" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="42"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37" t="s">
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="38" t="s">
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38">
+      <c r="J9" s="54"/>
+      <c r="K9" s="54">
         <v>10</v>
       </c>
-      <c r="L9" s="38"/>
+      <c r="L9" s="54"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="38" t="s">
+      <c r="N9" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="42"/>
-      <c r="AA9" s="42"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37" t="s">
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53" t="s">
         <v>186</v>
       </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="38" t="s">
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38">
+      <c r="J10" s="54"/>
+      <c r="K10" s="54">
         <v>10</v>
       </c>
-      <c r="L10" s="38"/>
+      <c r="L10" s="54"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="42"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:T8"/>
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="U6:AA6"/>
     <mergeCell ref="B7:E7"/>
@@ -5748,20 +5747,25 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="N6:P6"/>
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5772,92 +5776,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E86C57-CDFB-437D-99D0-0063AA09A240}">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="76" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="48" t="s">
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="51" t="s">
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
       <c r="Z1" s="29"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="48" t="s">
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="52">
+      <c r="S2" s="37"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="43">
         <v>45146</v>
       </c>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
       <c r="Z2" s="29"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="79" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="70" t="s">
         <v>109</v>
       </c>
       <c r="F3" s="45"/>
@@ -5872,25 +5876,25 @@
       <c r="O3" s="45"/>
       <c r="P3" s="45"/>
       <c r="Q3" s="45"/>
-      <c r="R3" s="48" t="s">
+      <c r="R3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="49"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="51" t="s">
+      <c r="S3" s="37"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
       <c r="Z3" s="29"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A4" s="73"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="75"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="46"/>
       <c r="F4" s="47"/>
       <c r="G4" s="47"/>
@@ -5904,718 +5908,724 @@
       <c r="O4" s="47"/>
       <c r="P4" s="47"/>
       <c r="Q4" s="47"/>
-      <c r="R4" s="48" t="s">
+      <c r="R4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="52">
-        <v>45154</v>
-      </c>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="43">
+        <v>45155</v>
+      </c>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
       <c r="Z4" s="29"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43" t="s">
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43" t="s">
+      <c r="J6" s="59"/>
+      <c r="K6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="43"/>
+      <c r="L6" s="59"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="N6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="33" t="s">
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="36" t="s">
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37" t="s">
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38" t="s">
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38">
+      <c r="J7" s="54"/>
+      <c r="K7" s="54">
         <v>6</v>
       </c>
-      <c r="L7" s="38"/>
+      <c r="L7" s="54"/>
       <c r="M7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="38" t="s">
+      <c r="N7" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37" t="s">
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="38" t="s">
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38">
+      <c r="J8" s="54"/>
+      <c r="K8" s="54">
         <v>20</v>
       </c>
-      <c r="L8" s="38"/>
+      <c r="L8" s="54"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="38" t="s">
+      <c r="N8" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="42"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37" t="s">
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="38" t="s">
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38" t="s">
+      <c r="J9" s="54"/>
+      <c r="K9" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="38"/>
+      <c r="L9" s="54"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="42"/>
-      <c r="AA9" s="42"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37" t="s">
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="38" t="s">
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38" t="s">
+      <c r="J10" s="54"/>
+      <c r="K10" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="38"/>
+      <c r="L10" s="54"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="42"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37" t="s">
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="38" t="s">
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38" t="s">
+      <c r="J11" s="54"/>
+      <c r="K11" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="38"/>
+      <c r="L11" s="54"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="42"/>
-      <c r="Z11" s="42"/>
-      <c r="AA11" s="42"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37" t="s">
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="38" t="s">
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38" t="s">
+      <c r="J12" s="54"/>
+      <c r="K12" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="38"/>
+      <c r="L12" s="54"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="42"/>
-      <c r="Z12" s="42"/>
-      <c r="AA12" s="42"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="58"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>7</v>
       </c>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="71" t="s">
         <v>171</v>
       </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="37" t="s">
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="38" t="s">
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38">
+      <c r="J13" s="54"/>
+      <c r="K13" s="54">
         <v>10</v>
       </c>
-      <c r="L13" s="38"/>
+      <c r="L13" s="54"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="42"/>
-      <c r="Z13" s="42"/>
-      <c r="AA13" s="42"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="58"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>8</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="42" t="s">
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="38" t="s">
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="54" t="s">
         <v>187</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38" t="s">
+      <c r="J14" s="54"/>
+      <c r="K14" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="38"/>
+      <c r="L14" s="54"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="42"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="42"/>
-      <c r="Z14" s="42"/>
-      <c r="AA14" s="42"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="58"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>9</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37" t="s">
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="38" t="s">
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="54" t="s">
         <v>187</v>
       </c>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38" t="s">
+      <c r="J15" s="54"/>
+      <c r="K15" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="38"/>
+      <c r="L15" s="54"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="42"/>
-      <c r="Y15" s="42"/>
-      <c r="Z15" s="42"/>
-      <c r="AA15" s="42"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="58"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>10</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37" t="s">
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="38" t="s">
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="54" t="s">
         <v>187</v>
       </c>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38" t="s">
+      <c r="J16" s="54"/>
+      <c r="K16" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="38"/>
+      <c r="L16" s="54"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="42"/>
-      <c r="AA16" s="42"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="58"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>11</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="37" t="s">
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="38" t="s">
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38" t="s">
+      <c r="J17" s="54"/>
+      <c r="K17" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="38"/>
+      <c r="L17" s="54"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="38" t="s">
+      <c r="N17" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="42" t="s">
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="V17" s="42"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="42"/>
-      <c r="Z17" s="42"/>
-      <c r="AA17" s="42"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="58"/>
+      <c r="X17" s="58"/>
+      <c r="Y17" s="58"/>
+      <c r="Z17" s="58"/>
+      <c r="AA17" s="58"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>12</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37" t="s">
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="38" t="s">
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38" t="s">
+      <c r="J18" s="54"/>
+      <c r="K18" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="38"/>
+      <c r="L18" s="54"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="42"/>
-      <c r="Y18" s="42"/>
-      <c r="Z18" s="42"/>
-      <c r="AA18" s="42"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="57"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="58"/>
+      <c r="Y18" s="58"/>
+      <c r="Z18" s="58"/>
+      <c r="AA18" s="58"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>13</v>
       </c>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="37" t="s">
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="38" t="s">
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38">
+      <c r="J19" s="54"/>
+      <c r="K19" s="54">
         <v>6</v>
       </c>
-      <c r="L19" s="38"/>
+      <c r="L19" s="54"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="42"/>
-      <c r="Y19" s="42"/>
-      <c r="Z19" s="42"/>
-      <c r="AA19" s="42"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="58"/>
+      <c r="V19" s="58"/>
+      <c r="W19" s="58"/>
+      <c r="X19" s="58"/>
+      <c r="Y19" s="58"/>
+      <c r="Z19" s="58"/>
+      <c r="AA19" s="58"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>14</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="37" t="s">
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="38" t="s">
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38" t="s">
+      <c r="J20" s="54"/>
+      <c r="K20" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L20" s="38"/>
+      <c r="L20" s="54"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="42"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="42"/>
-      <c r="Z20" s="42"/>
-      <c r="AA20" s="42"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="58"/>
+      <c r="W20" s="58"/>
+      <c r="X20" s="58"/>
+      <c r="Y20" s="58"/>
+      <c r="Z20" s="58"/>
+      <c r="AA20" s="58"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>15</v>
       </c>
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="37" t="s">
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="38" t="s">
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38">
+      <c r="J21" s="54"/>
+      <c r="K21" s="54">
         <v>6</v>
       </c>
-      <c r="L21" s="38"/>
+      <c r="L21" s="54"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="42"/>
-      <c r="X21" s="42"/>
-      <c r="Y21" s="42"/>
-      <c r="Z21" s="42"/>
-      <c r="AA21" s="42"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="58"/>
+      <c r="W21" s="58"/>
+      <c r="X21" s="58"/>
+      <c r="Y21" s="58"/>
+      <c r="Z21" s="58"/>
+      <c r="AA21" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="126">
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="U15:AA15"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="U20:AA20"/>
+    <mergeCell ref="U21:AA21"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="U17:AA17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="U19:AA19"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="U16:AA16"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="U12:AA12"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="U13:AA13"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="U14:AA14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
     <mergeCell ref="N14:P14"/>
     <mergeCell ref="Q14:T14"/>
     <mergeCell ref="B14:E14"/>
@@ -6640,66 +6650,48 @@
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="N16:P16"/>
     <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="U12:AA12"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="U13:AA13"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="U14:AA14"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="U15:AA15"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="U20:AA20"/>
-    <mergeCell ref="U21:AA21"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="U17:AA17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="U19:AA19"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="U16:AA16"/>
-    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6710,8 +6702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9F0380-6A5A-442D-8FC4-55232AE4172E}">
   <dimension ref="A1:AA16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:L10"/>
+    <sheetView topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6723,68 +6715,68 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="48" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="51" t="s">
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="54" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="48" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="52">
+      <c r="S2" s="37"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="43">
         <v>45146</v>
       </c>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
@@ -6808,18 +6800,18 @@
       <c r="O3" s="45"/>
       <c r="P3" s="45"/>
       <c r="Q3" s="45"/>
-      <c r="R3" s="48" t="s">
+      <c r="R3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="49"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="51" t="s">
+      <c r="S3" s="37"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
@@ -6839,18 +6831,18 @@
       <c r="O4" s="47"/>
       <c r="P4" s="47"/>
       <c r="Q4" s="47"/>
-      <c r="R4" s="48" t="s">
+      <c r="R4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="52">
+      <c r="S4" s="37"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="43">
         <v>45154</v>
       </c>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="U5" s="3"/>
@@ -6864,536 +6856,461 @@
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43" t="s">
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43" t="s">
+      <c r="J6" s="59"/>
+      <c r="K6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="43"/>
+      <c r="L6" s="59"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="N6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="33" t="s">
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="36" t="s">
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="64" t="s">
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="G7" s="62"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="38" t="s">
+      <c r="G7" s="72"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38">
+      <c r="J7" s="54"/>
+      <c r="K7" s="54">
         <v>5</v>
       </c>
-      <c r="L7" s="38"/>
+      <c r="L7" s="54"/>
       <c r="M7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="38" t="s">
+      <c r="N7" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="39" t="s">
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="42" t="s">
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="64" t="s">
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="62"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="38" t="s">
+      <c r="G8" s="72"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38">
+      <c r="J8" s="54"/>
+      <c r="K8" s="54">
         <v>200</v>
       </c>
-      <c r="L8" s="38"/>
+      <c r="L8" s="54"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="38" t="s">
+      <c r="N8" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="42"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="64" t="s">
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="62"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="38" t="s">
+      <c r="G9" s="72"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38" t="s">
+      <c r="J9" s="54"/>
+      <c r="K9" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="38"/>
+      <c r="L9" s="54"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="38" t="s">
+      <c r="N9" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="42"/>
-      <c r="AA9" s="42"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="74"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="64" t="s">
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="62"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="38" t="s">
+      <c r="G10" s="72"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38" t="s">
+      <c r="J10" s="54"/>
+      <c r="K10" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="38"/>
+      <c r="L10" s="54"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="38" t="s">
+      <c r="N10" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="42"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="61" t="s">
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="G11" s="62"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="38" t="s">
+      <c r="G11" s="72"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38">
+      <c r="J11" s="54"/>
+      <c r="K11" s="54">
         <v>200</v>
       </c>
-      <c r="L11" s="38"/>
+      <c r="L11" s="54"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="60" t="s">
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="42"/>
-      <c r="Z11" s="42"/>
-      <c r="AA11" s="42"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37" t="s">
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="38" t="s">
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38" t="s">
+      <c r="J12" s="54"/>
+      <c r="K12" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="38"/>
+      <c r="L12" s="54"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="38" t="s">
+      <c r="N12" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="42" t="s">
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="42"/>
-      <c r="Z12" s="42"/>
-      <c r="AA12" s="42"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="58"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>7</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37" t="s">
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="38" t="s">
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38" t="s">
+      <c r="J13" s="54"/>
+      <c r="K13" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="38"/>
+      <c r="L13" s="54"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="42"/>
-      <c r="Z13" s="42"/>
-      <c r="AA13" s="42"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="58"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>8</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="37" t="s">
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="38" t="s">
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38">
+      <c r="J14" s="54"/>
+      <c r="K14" s="54">
         <v>6</v>
       </c>
-      <c r="L14" s="38"/>
+      <c r="L14" s="54"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="42"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="42"/>
-      <c r="Z14" s="42"/>
-      <c r="AA14" s="42"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="58"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>9</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="37" t="s">
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="38" t="s">
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38" t="s">
+      <c r="J15" s="54"/>
+      <c r="K15" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="38"/>
+      <c r="L15" s="54"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="42"/>
-      <c r="Y15" s="42"/>
-      <c r="Z15" s="42"/>
-      <c r="AA15" s="42"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="58"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>10</v>
       </c>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="37" t="s">
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="38" t="s">
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38">
+      <c r="J16" s="54"/>
+      <c r="K16" s="54">
         <v>6</v>
       </c>
-      <c r="L16" s="38"/>
+      <c r="L16" s="54"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="42"/>
-      <c r="AA16" s="42"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="U15:AA15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="U16:AA16"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="U13:AA13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="U14:AA14"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:P10"/>
     <mergeCell ref="Q11:T11"/>
     <mergeCell ref="U11:AA11"/>
     <mergeCell ref="B12:E12"/>
@@ -7408,780 +7325,13 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="N11:P11"/>
-  </mergeCells>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79AA1B0E-65A6-441D-990E-73926E3709B8}">
-  <dimension ref="A1:AA30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11:L12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="52">
-        <v>45146</v>
-      </c>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" s="49"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="52">
-        <v>45154</v>
-      </c>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="15"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="43"/>
-      <c r="M6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38">
-        <v>5</v>
-      </c>
-      <c r="L7" s="38"/>
-      <c r="M7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
-        <v>2</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38">
-        <v>1</v>
-      </c>
-      <c r="L8" s="38"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="42"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
-        <v>3</v>
-      </c>
-      <c r="B9" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="62"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="39">
-        <v>1</v>
-      </c>
-      <c r="L9" s="41"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" s="40"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="61"/>
-      <c r="V9" s="67"/>
-      <c r="W9" s="67"/>
-      <c r="X9" s="67"/>
-      <c r="Y9" s="67"/>
-      <c r="Z9" s="67"/>
-      <c r="AA9" s="68"/>
-    </row>
-    <row r="10" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
-        <v>4</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38">
-        <v>200</v>
-      </c>
-      <c r="L10" s="38"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10" s="40"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="42"/>
-    </row>
-    <row r="11" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
-        <v>5</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="38"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="42"/>
-      <c r="Z11" s="42"/>
-      <c r="AA11" s="42"/>
-    </row>
-    <row r="12" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
-        <v>6</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="38"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="42"/>
-      <c r="Z12" s="42"/>
-      <c r="AA12" s="42"/>
-    </row>
-    <row r="13" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
-        <v>7</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38">
-        <v>200</v>
-      </c>
-      <c r="L13" s="38"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="42"/>
-      <c r="Z13" s="42"/>
-      <c r="AA13" s="42"/>
-    </row>
-    <row r="14" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="2">
-        <v>8</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="38"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="V14" s="42"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="42"/>
-      <c r="Z14" s="42"/>
-      <c r="AA14" s="42"/>
-    </row>
-    <row r="15" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="2">
-        <v>9</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="38"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="42"/>
-      <c r="Y15" s="42"/>
-      <c r="Z15" s="42"/>
-      <c r="AA15" s="42"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A16" s="2">
-        <v>10</v>
-      </c>
-      <c r="B16" s="64" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38">
-        <v>6</v>
-      </c>
-      <c r="L16" s="38"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="42"/>
-      <c r="AA16" s="42"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A17" s="2">
-        <v>11</v>
-      </c>
-      <c r="B17" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="38"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="42"/>
-      <c r="Z17" s="42"/>
-      <c r="AA17" s="42"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A18" s="2">
-        <v>12</v>
-      </c>
-      <c r="B18" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38">
-        <v>6</v>
-      </c>
-      <c r="L18" s="38"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="42"/>
-      <c r="Y18" s="42"/>
-      <c r="Z18" s="42"/>
-      <c r="AA18" s="42"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A30" s="13"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="66"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="66"/>
-      <c r="P30" s="66"/>
-      <c r="Q30" s="66"/>
-      <c r="R30" s="66"/>
-      <c r="S30" s="66"/>
-      <c r="T30" s="66"/>
-      <c r="U30" s="65"/>
-      <c r="V30" s="65"/>
-      <c r="W30" s="65"/>
-      <c r="X30" s="65"/>
-      <c r="Y30" s="65"/>
-      <c r="Z30" s="65"/>
-      <c r="AA30" s="65"/>
-    </row>
-  </sheetData>
-  <mergeCells count="110">
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="U17:AA17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="U18:AA18"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="U15:AA15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="U16:AA16"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="U30:AA30"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="Q30:T30"/>
-    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U10:AA10"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="U11:AA11"/>
-    <mergeCell ref="B12:E12"/>
     <mergeCell ref="U8:AA8"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="F8:H8"/>
@@ -8215,17 +7365,13 @@
     <mergeCell ref="E2:Q2"/>
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="U12:AA12"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
     <mergeCell ref="Q13:T13"/>
     <mergeCell ref="U13:AA13"/>
     <mergeCell ref="B14:E14"/>
@@ -8240,103 +7386,115 @@
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="U15:AA15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="U16:AA16"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N15:P15"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47093B1E-4F13-4684-B5A1-F6BE9B073947}">
-  <dimension ref="A1:AA11"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79AA1B0E-65A6-441D-990E-73926E3709B8}">
+  <dimension ref="A1:AA30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:E9"/>
+    <sheetView topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12:P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="76" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="48" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="51" t="s">
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="29"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="48" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="52">
+      <c r="S2" s="37"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="43">
         <v>45146</v>
       </c>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="29"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="79" t="s">
-        <v>92</v>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="44" t="s">
+        <v>63</v>
       </c>
       <c r="F3" s="45"/>
       <c r="G3" s="45"/>
@@ -8350,25 +7508,24 @@
       <c r="O3" s="45"/>
       <c r="P3" s="45"/>
       <c r="Q3" s="45"/>
-      <c r="R3" s="48" t="s">
+      <c r="R3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="49"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="51" t="s">
+      <c r="S3" s="37"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
-      <c r="Z3" s="29"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A4" s="73"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="75"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="46"/>
       <c r="F4" s="47"/>
       <c r="G4" s="47"/>
@@ -8382,279 +7539,619 @@
       <c r="O4" s="47"/>
       <c r="P4" s="47"/>
       <c r="Q4" s="47"/>
-      <c r="R4" s="48" t="s">
+      <c r="R4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="52">
+      <c r="S4" s="37"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="43">
         <v>45154</v>
       </c>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
-      <c r="Z4" s="29"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="15"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43" t="s">
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43" t="s">
+      <c r="J6" s="59"/>
+      <c r="K6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="43"/>
+      <c r="L6" s="59"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="N6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="33" t="s">
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="36" t="s">
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38" t="s">
+      <c r="B7" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38">
-        <v>6</v>
-      </c>
-      <c r="L7" s="38"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54">
+        <v>5</v>
+      </c>
+      <c r="L7" s="54"/>
       <c r="M7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="38" t="s">
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="38" t="s">
+      <c r="B8" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38">
-        <v>5</v>
-      </c>
-      <c r="L8" s="38"/>
-      <c r="M8" s="2" t="s">
+      <c r="J8" s="54"/>
+      <c r="K8" s="54">
+        <v>1</v>
+      </c>
+      <c r="L8" s="54"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="42"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="38"/>
-      <c r="M9" s="2" t="s">
+      <c r="B9" s="71" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="72"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="54"/>
+      <c r="K9" s="55">
+        <v>1</v>
+      </c>
+      <c r="L9" s="57"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="42"/>
-      <c r="AA9" s="42"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="O9" s="56"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="75"/>
+      <c r="V9" s="78"/>
+      <c r="W9" s="78"/>
+      <c r="X9" s="78"/>
+      <c r="Y9" s="78"/>
+      <c r="Z9" s="78"/>
+      <c r="AA9" s="79"/>
+    </row>
+    <row r="10" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="38"/>
+      <c r="B10" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54">
+        <v>200</v>
+      </c>
+      <c r="L10" s="54"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="38" t="s">
+      <c r="N10" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="42"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="O10" s="56"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
+    </row>
+    <row r="11" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="54"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
+    </row>
+    <row r="12" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="54"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="58"/>
+    </row>
+    <row r="13" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>7</v>
+      </c>
+      <c r="B13" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37" t="s">
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="38" t="s">
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38">
+      <c r="J13" s="54"/>
+      <c r="K13" s="54">
         <v>200</v>
       </c>
-      <c r="L11" s="38"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="42"/>
-      <c r="Z11" s="42"/>
-      <c r="AA11" s="42"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="58"/>
+    </row>
+    <row r="14" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <v>8</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="54"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="58"/>
+    </row>
+    <row r="15" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>9</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="54"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="58"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>10</v>
+      </c>
+      <c r="B16" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54">
+        <v>6</v>
+      </c>
+      <c r="L16" s="54"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="58"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>11</v>
+      </c>
+      <c r="B17" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="54"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="58"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="58"/>
+      <c r="X17" s="58"/>
+      <c r="Y17" s="58"/>
+      <c r="Z17" s="58"/>
+      <c r="AA17" s="58"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A18" s="2">
+        <v>12</v>
+      </c>
+      <c r="B18" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54">
+        <v>6</v>
+      </c>
+      <c r="L18" s="54"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="57"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="58"/>
+      <c r="Y18" s="58"/>
+      <c r="Z18" s="58"/>
+      <c r="AA18" s="58"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A30" s="13"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="77"/>
+      <c r="P30" s="77"/>
+      <c r="Q30" s="77"/>
+      <c r="R30" s="77"/>
+      <c r="S30" s="77"/>
+      <c r="T30" s="77"/>
+      <c r="U30" s="76"/>
+      <c r="V30" s="76"/>
+      <c r="W30" s="76"/>
+      <c r="X30" s="76"/>
+      <c r="Y30" s="76"/>
+      <c r="Z30" s="76"/>
+      <c r="AA30" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="110">
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="U13:AA13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="U14:AA14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="U12:AA12"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
     <mergeCell ref="E1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="U1:Y1"/>
@@ -8662,12 +8159,521 @@
     <mergeCell ref="E2:Q2"/>
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="U30:AA30"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="Q30:T30"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="U15:AA15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="U16:AA16"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="U17:AA17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="U18:AA18"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="N17:P17"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47093B1E-4F13-4684-B5A1-F6BE9B073947}">
+  <dimension ref="A1:AA11"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="29"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A2" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="37"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="43">
+        <v>45146</v>
+      </c>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="29"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A3" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="37"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="29"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" s="37"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="43">
+        <v>45154</v>
+      </c>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="29"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="59"/>
+      <c r="M6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54">
+        <v>6</v>
+      </c>
+      <c r="L7" s="54"/>
+      <c r="M7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54">
+        <v>5</v>
+      </c>
+      <c r="L8" s="54"/>
+      <c r="M8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53" t="s">
+        <v>182</v>
+      </c>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="54"/>
+      <c r="M9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="54"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54">
+        <v>200</v>
+      </c>
+      <c r="L11" s="54"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="56">
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:T8"/>
     <mergeCell ref="U6:AA6"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F7:H7"/>
@@ -8682,34 +8688,20 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="N6:P6"/>
     <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="U11:AA11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書/DB設計書.xlsx
+++ b/設計書/DB設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m-matsuka\Desktop\GitHub_クローン\company_evaluation\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3C696E-3C1F-4D32-88AE-4288C530417F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA684F2-0151-4954-BF82-68F3E2A0C800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="5" xr2:uid="{49359F61-E175-4E64-83B2-4241FAD3E8F3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{49359F61-E175-4E64-83B2-4241FAD3E8F3}"/>
   </bookViews>
   <sheets>
     <sheet name="E-R図" sheetId="10" r:id="rId1"/>
@@ -392,10 +392,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>rank</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>class</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1129,6 +1125,10 @@
   <si>
     <t>TM_user</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>cl_rank</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -1464,54 +1464,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1544,6 +1496,54 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2582,57 +2582,57 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B3" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B5" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B6" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.4">
       <c r="D7" s="30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F7" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="H7" s="30" t="s">
         <v>137</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.4">
       <c r="D8" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.4">
@@ -2640,205 +2640,205 @@
         <v>50</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B10" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B11" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>48</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B12" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B14" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B15" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.4">
       <c r="D16" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D17" s="30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B19" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B21" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F21" s="25" t="s">
         <v>21</v>
       </c>
       <c r="H21" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B22" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B23" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B24" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B25" s="30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H25" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
       <c r="H26" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="H27" s="30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
@@ -2846,7 +2846,7 @@
         <v>38</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.4">
@@ -2854,7 +2854,7 @@
         <v>39</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.4">
@@ -2862,7 +2862,7 @@
         <v>40</v>
       </c>
       <c r="H30" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2887,14 +2887,14 @@
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="67" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F1" s="68"/>
       <c r="G1" s="68"/>
@@ -2908,18 +2908,18 @@
       <c r="O1" s="68"/>
       <c r="P1" s="68"/>
       <c r="Q1" s="68"/>
-      <c r="R1" s="36" t="s">
+      <c r="R1" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="39" t="s">
+      <c r="S1" s="49"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
       <c r="Z1" s="29"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
@@ -2930,7 +2930,7 @@
       <c r="C2" s="60"/>
       <c r="D2" s="60"/>
       <c r="E2" s="67" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F2" s="68"/>
       <c r="G2" s="68"/>
@@ -2944,18 +2944,18 @@
       <c r="O2" s="68"/>
       <c r="P2" s="68"/>
       <c r="Q2" s="69"/>
-      <c r="R2" s="36" t="s">
+      <c r="R2" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="37"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="43">
+      <c r="S2" s="49"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="52">
         <v>45146</v>
       </c>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
       <c r="Z2" s="29"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
@@ -2966,7 +2966,7 @@
       <c r="C3" s="62"/>
       <c r="D3" s="63"/>
       <c r="E3" s="70" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F3" s="45"/>
       <c r="G3" s="45"/>
@@ -2980,18 +2980,18 @@
       <c r="O3" s="45"/>
       <c r="P3" s="45"/>
       <c r="Q3" s="45"/>
-      <c r="R3" s="36" t="s">
+      <c r="R3" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="37"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="39" t="s">
+      <c r="S3" s="49"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
       <c r="Z3" s="29"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
@@ -3012,242 +3012,265 @@
       <c r="O4" s="47"/>
       <c r="P4" s="47"/>
       <c r="Q4" s="47"/>
-      <c r="R4" s="36" t="s">
+      <c r="R4" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="37"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="43">
+      <c r="S4" s="49"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="52">
         <v>45154</v>
       </c>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
       <c r="Z4" s="29"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59" t="s">
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59" t="s">
+      <c r="J6" s="43"/>
+      <c r="K6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="59"/>
+      <c r="L6" s="43"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="59" t="s">
+      <c r="N6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="49" t="s">
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="52" t="s">
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="54" t="s">
+      <c r="B7" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54">
+      <c r="J7" s="38"/>
+      <c r="K7" s="38">
         <v>6</v>
       </c>
-      <c r="L7" s="54"/>
+      <c r="L7" s="38"/>
       <c r="M7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="54" t="s">
+      <c r="N7" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="58"/>
-      <c r="AA7" s="58"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="54" t="s">
+      <c r="B8" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54">
+      <c r="J8" s="38"/>
+      <c r="K8" s="38">
         <v>5</v>
       </c>
-      <c r="L8" s="54"/>
+      <c r="L8" s="38"/>
       <c r="M8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="54" t="s">
+      <c r="N8" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="58"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="53" t="s">
-        <v>191</v>
-      </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53" t="s">
-        <v>182</v>
-      </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54" t="s">
+      <c r="B9" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54" t="s">
+      <c r="J9" s="38"/>
+      <c r="K9" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="54"/>
+      <c r="L9" s="38"/>
       <c r="M9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="54" t="s">
+      <c r="N9" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="58"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53" t="s">
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54" t="s">
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54">
+      <c r="J10" s="38"/>
+      <c r="K10" s="38">
         <v>200</v>
       </c>
-      <c r="L10" s="54"/>
+      <c r="L10" s="38"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="58"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:T6"/>
     <mergeCell ref="Q10:T10"/>
     <mergeCell ref="U10:AA10"/>
     <mergeCell ref="U8:AA8"/>
@@ -3264,34 +3287,11 @@
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="N8:P8"/>
     <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3309,12 +3309,12 @@
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="67" t="s">
         <v>30</v>
       </c>
@@ -3330,18 +3330,18 @@
       <c r="O1" s="68"/>
       <c r="P1" s="68"/>
       <c r="Q1" s="68"/>
-      <c r="R1" s="36" t="s">
+      <c r="R1" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="39" t="s">
+      <c r="S1" s="49"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
       <c r="Z1" s="14"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
@@ -3366,18 +3366,18 @@
       <c r="O2" s="68"/>
       <c r="P2" s="68"/>
       <c r="Q2" s="69"/>
-      <c r="R2" s="36" t="s">
+      <c r="R2" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="37"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="43">
+      <c r="S2" s="49"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="52">
         <v>45069</v>
       </c>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
       <c r="Z2" s="16"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
@@ -3402,18 +3402,18 @@
       <c r="O3" s="45"/>
       <c r="P3" s="45"/>
       <c r="Q3" s="45"/>
-      <c r="R3" s="36" t="s">
+      <c r="R3" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="37"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="39" t="s">
+      <c r="S3" s="49"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
       <c r="Z3" s="17"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
@@ -3434,248 +3434,248 @@
       <c r="O4" s="47"/>
       <c r="P4" s="47"/>
       <c r="Q4" s="47"/>
-      <c r="R4" s="36" t="s">
+      <c r="R4" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="37"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="43">
+      <c r="S4" s="49"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="52">
         <v>45072</v>
       </c>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
       <c r="Z4" s="18"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59" t="s">
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59" t="s">
+      <c r="J6" s="43"/>
+      <c r="K6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="59"/>
+      <c r="L6" s="43"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="59" t="s">
+      <c r="N6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="49" t="s">
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="52" t="s">
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53" t="s">
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="54" t="s">
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54">
+      <c r="J7" s="38"/>
+      <c r="K7" s="38">
         <v>6</v>
       </c>
-      <c r="L7" s="54"/>
+      <c r="L7" s="38"/>
       <c r="M7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="54" t="s">
+      <c r="N7" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="55" t="s">
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="58"/>
-      <c r="AA7" s="58"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53" t="s">
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="54" t="s">
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54">
+      <c r="J8" s="38"/>
+      <c r="K8" s="38">
         <v>2</v>
       </c>
-      <c r="L8" s="54"/>
+      <c r="L8" s="38"/>
       <c r="M8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="54" t="s">
+      <c r="N8" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="55" t="s">
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="58"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53" t="s">
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54" t="s">
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54" t="s">
+      <c r="J9" s="38"/>
+      <c r="K9" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="54"/>
+      <c r="L9" s="38"/>
       <c r="M9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="54" t="s">
+      <c r="N9" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="55" t="s">
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="58" t="s">
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="58"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53" t="s">
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54" t="s">
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54">
+      <c r="J10" s="38"/>
+      <c r="K10" s="38">
         <v>3</v>
       </c>
-      <c r="L10" s="54"/>
+      <c r="L10" s="38"/>
       <c r="M10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N10" s="54" t="s">
+      <c r="N10" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54" t="s">
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="R10" s="54"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="58"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="13"/>
@@ -3882,20 +3882,76 @@
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="U17:AA17"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="U12:AA12"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="U13:AA13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="U14:AA14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:T13"/>
     <mergeCell ref="U15:AA15"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="F16:H16"/>
@@ -3910,76 +3966,20 @@
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="N15:P15"/>
     <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="U13:AA13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="U14:AA14"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="U11:AA11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="U12:AA12"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U17:AA17"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3991,7 +3991,7 @@
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4003,68 +4003,68 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="49"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A2" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="37"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="43">
+      <c r="S2" s="49"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="52">
         <v>45148</v>
       </c>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
@@ -4074,7 +4074,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
       <c r="E3" s="44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F3" s="45"/>
       <c r="G3" s="45"/>
@@ -4088,18 +4088,18 @@
       <c r="O3" s="45"/>
       <c r="P3" s="45"/>
       <c r="Q3" s="45"/>
-      <c r="R3" s="36" t="s">
+      <c r="R3" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="37"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="39" t="s">
+      <c r="S3" s="49"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
@@ -4119,18 +4119,18 @@
       <c r="O4" s="47"/>
       <c r="P4" s="47"/>
       <c r="Q4" s="47"/>
-      <c r="R4" s="36" t="s">
+      <c r="R4" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="37"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="43">
+      <c r="S4" s="49"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="52">
         <v>45154</v>
       </c>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="U5" s="3"/>
@@ -4144,98 +4144,110 @@
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59" t="s">
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59" t="s">
+      <c r="J6" s="43"/>
+      <c r="K6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="59"/>
+      <c r="L6" s="43"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="59" t="s">
+      <c r="N6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="49" t="s">
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="52" t="s">
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53" t="s">
-        <v>178</v>
-      </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="54" t="s">
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54" t="s">
-        <v>190</v>
-      </c>
-      <c r="L7" s="54"/>
+      <c r="L7" s="38"/>
       <c r="M7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="54" t="s">
+      <c r="N7" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="55" t="s">
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="58" t="s">
-        <v>179</v>
-      </c>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="58"/>
-      <c r="AA7" s="58"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="U6:AA6"/>
     <mergeCell ref="B7:E7"/>
@@ -4250,18 +4262,6 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="N6:P6"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4272,8 +4272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE2AC0F-C4AF-466C-B027-8F5E6491BC17}">
   <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4285,68 +4285,68 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="36" t="s">
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="39" t="s">
+      <c r="S1" s="49"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="33" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="37"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="43">
+      <c r="S2" s="49"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="52">
         <v>45146</v>
       </c>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
@@ -4370,18 +4370,18 @@
       <c r="O3" s="45"/>
       <c r="P3" s="45"/>
       <c r="Q3" s="45"/>
-      <c r="R3" s="36" t="s">
+      <c r="R3" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="37"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="39" t="s">
+      <c r="S3" s="49"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
@@ -4401,18 +4401,18 @@
       <c r="O4" s="47"/>
       <c r="P4" s="47"/>
       <c r="Q4" s="47"/>
-      <c r="R4" s="36" t="s">
+      <c r="R4" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="37"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="43">
-        <v>45154</v>
-      </c>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="52">
+        <v>45155</v>
+      </c>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="U5" s="3"/>
@@ -4426,307 +4426,354 @@
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59" t="s">
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59" t="s">
+      <c r="J6" s="43"/>
+      <c r="K6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="59"/>
+      <c r="L6" s="43"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="59" t="s">
+      <c r="N6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="49" t="s">
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="52" t="s">
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="54" t="s">
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54">
+      <c r="J7" s="38"/>
+      <c r="K7" s="38">
         <v>2</v>
       </c>
-      <c r="L7" s="54"/>
+      <c r="L7" s="38"/>
       <c r="M7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="54" t="s">
+      <c r="N7" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="55" t="s">
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="58"/>
-      <c r="AA7" s="58"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="54" t="s">
-        <v>187</v>
-      </c>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54" t="s">
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="54"/>
+      <c r="L8" s="38"/>
       <c r="M8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="54" t="s">
+      <c r="N8" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="55" t="s">
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="58"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="53" t="s">
-        <v>172</v>
-      </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53" t="s">
+      <c r="B9" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54" t="s">
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="54"/>
+      <c r="L9" s="38"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="54" t="s">
+      <c r="N9" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="58"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53" t="s">
+      <c r="B10" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54" t="s">
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="54"/>
+      <c r="L10" s="38"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="54" t="s">
+      <c r="N10" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="58"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="54" t="s">
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54" t="s">
-        <v>190</v>
-      </c>
-      <c r="L11" s="54"/>
+      <c r="L11" s="38"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="54" t="s">
+      <c r="N11" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="58"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="58"/>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="58"/>
-      <c r="AA11" s="58"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="53" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54" t="s">
+      <c r="B12" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="54"/>
+      <c r="L12" s="38"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="54" t="s">
+      <c r="N12" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="58" t="s">
-        <v>167</v>
-      </c>
-      <c r="V12" s="58"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="58"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="U12:AA12"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
     <mergeCell ref="Q10:T10"/>
     <mergeCell ref="U10:AA10"/>
     <mergeCell ref="B11:E11"/>
@@ -4741,53 +4788,6 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="U12:AA12"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4805,14 +4805,14 @@
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F1" s="68"/>
       <c r="G1" s="68"/>
@@ -4826,18 +4826,18 @@
       <c r="O1" s="68"/>
       <c r="P1" s="68"/>
       <c r="Q1" s="68"/>
-      <c r="R1" s="36" t="s">
+      <c r="R1" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="39" t="s">
+      <c r="S1" s="49"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
       <c r="Z1" s="29"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
@@ -4848,7 +4848,7 @@
       <c r="C2" s="60"/>
       <c r="D2" s="60"/>
       <c r="E2" s="67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F2" s="68"/>
       <c r="G2" s="68"/>
@@ -4862,18 +4862,18 @@
       <c r="O2" s="68"/>
       <c r="P2" s="68"/>
       <c r="Q2" s="69"/>
-      <c r="R2" s="36" t="s">
+      <c r="R2" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="37"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="43">
+      <c r="S2" s="49"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="52">
         <v>45146</v>
       </c>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
       <c r="Z2" s="29"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
@@ -4884,7 +4884,7 @@
       <c r="C3" s="62"/>
       <c r="D3" s="63"/>
       <c r="E3" s="70" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F3" s="45"/>
       <c r="G3" s="45"/>
@@ -4898,18 +4898,18 @@
       <c r="O3" s="45"/>
       <c r="P3" s="45"/>
       <c r="Q3" s="45"/>
-      <c r="R3" s="36" t="s">
+      <c r="R3" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="37"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="39" t="s">
+      <c r="S3" s="49"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
       <c r="Z3" s="29"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
@@ -4930,350 +4930,406 @@
       <c r="O4" s="47"/>
       <c r="P4" s="47"/>
       <c r="Q4" s="47"/>
-      <c r="R4" s="36" t="s">
+      <c r="R4" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="37"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="43">
+      <c r="S4" s="49"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="52">
         <v>45154</v>
       </c>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
       <c r="Z4" s="29"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59" t="s">
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59" t="s">
+      <c r="J6" s="43"/>
+      <c r="K6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="59"/>
+      <c r="L6" s="43"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="59" t="s">
+      <c r="N6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="49" t="s">
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="52" t="s">
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="54" t="s">
-        <v>187</v>
-      </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54" t="s">
+      <c r="B7" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="54"/>
+      <c r="L7" s="38"/>
       <c r="M7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="54" t="s">
+      <c r="N7" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="58"/>
-      <c r="AA7" s="58"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="54" t="s">
-        <v>187</v>
-      </c>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54" t="s">
+      <c r="B8" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="54"/>
+      <c r="L8" s="38"/>
       <c r="M8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="54" t="s">
+      <c r="N8" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="58"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54" t="s">
-        <v>187</v>
-      </c>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54" t="s">
+      <c r="B9" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="54"/>
+      <c r="L9" s="38"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="58"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54" t="s">
-        <v>187</v>
-      </c>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54" t="s">
+      <c r="B10" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="54"/>
+      <c r="L10" s="38"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="58"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="54" t="s">
-        <v>187</v>
-      </c>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54" t="s">
+      <c r="B11" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="54"/>
+      <c r="L11" s="38"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="58"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="58"/>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="58"/>
-      <c r="AA11" s="58"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="54" t="s">
-        <v>187</v>
-      </c>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54" t="s">
+      <c r="B12" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="54"/>
+      <c r="L12" s="38"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="58"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>7</v>
       </c>
-      <c r="B13" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="54" t="s">
-        <v>187</v>
-      </c>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54" t="s">
+      <c r="B13" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="54"/>
+      <c r="L13" s="38"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="58"/>
-      <c r="Z13" s="58"/>
-      <c r="AA13" s="58"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:T8"/>
     <mergeCell ref="Q12:T12"/>
     <mergeCell ref="U12:AA12"/>
     <mergeCell ref="Q13:T13"/>
@@ -5288,62 +5344,6 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="N12:P12"/>
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="U11:AA11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5367,68 +5367,68 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
-      <c r="E1" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="36" t="s">
+      <c r="E1" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="39" t="s">
+      <c r="S1" s="49"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="37"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="43">
+      <c r="S2" s="49"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="52">
         <v>45147</v>
       </c>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
@@ -5438,7 +5438,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
       <c r="E3" s="44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F3" s="45"/>
       <c r="G3" s="45"/>
@@ -5452,18 +5452,18 @@
       <c r="O3" s="45"/>
       <c r="P3" s="45"/>
       <c r="Q3" s="45"/>
-      <c r="R3" s="36" t="s">
+      <c r="R3" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="37"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="39" t="s">
+      <c r="S3" s="49"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
@@ -5483,18 +5483,18 @@
       <c r="O4" s="47"/>
       <c r="P4" s="47"/>
       <c r="Q4" s="47"/>
-      <c r="R4" s="36" t="s">
+      <c r="R4" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="37"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="43">
+      <c r="S4" s="49"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="52">
         <v>45154</v>
       </c>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="U5" s="3"/>
@@ -5508,217 +5508,250 @@
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59" t="s">
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59" t="s">
+      <c r="J6" s="43"/>
+      <c r="K6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="59"/>
+      <c r="L6" s="43"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="59" t="s">
+      <c r="N6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="49" t="s">
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="52" t="s">
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53" t="s">
-        <v>181</v>
-      </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="54" t="s">
+      <c r="B7" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54">
+      <c r="J7" s="38"/>
+      <c r="K7" s="38">
         <v>10</v>
       </c>
-      <c r="L7" s="54"/>
+      <c r="L7" s="38"/>
       <c r="M7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="54" t="s">
+      <c r="N7" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="55" t="s">
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="58"/>
-      <c r="AA7" s="58"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="53" t="s">
-        <v>193</v>
-      </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53" t="s">
-        <v>185</v>
-      </c>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="54" t="s">
+      <c r="B8" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54">
+      <c r="J8" s="38"/>
+      <c r="K8" s="38">
         <v>20</v>
       </c>
-      <c r="L8" s="54"/>
+      <c r="L8" s="38"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="54" t="s">
+      <c r="N8" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="58"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="53" t="s">
-        <v>164</v>
-      </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54" t="s">
+      <c r="B9" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54">
+      <c r="J9" s="38"/>
+      <c r="K9" s="38">
         <v>10</v>
       </c>
-      <c r="L9" s="54"/>
+      <c r="L9" s="38"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="54" t="s">
+      <c r="N9" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="58"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="53" t="s">
-        <v>183</v>
-      </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53" t="s">
-        <v>186</v>
-      </c>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54" t="s">
+      <c r="B10" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54">
+      <c r="J10" s="38"/>
+      <c r="K10" s="38">
         <v>10</v>
       </c>
-      <c r="L10" s="54"/>
+      <c r="L10" s="38"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="58"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
     <mergeCell ref="U8:AA8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F9:H9"/>
@@ -5733,39 +5766,6 @@
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="N8:P8"/>
     <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:P10"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5776,21 +5776,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E86C57-CDFB-437D-99D0-0063AA09A240}">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="U4" sqref="U4:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F1" s="68"/>
       <c r="G1" s="68"/>
@@ -5804,18 +5804,18 @@
       <c r="O1" s="68"/>
       <c r="P1" s="68"/>
       <c r="Q1" s="68"/>
-      <c r="R1" s="36" t="s">
+      <c r="R1" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="39" t="s">
+      <c r="S1" s="49"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
       <c r="Z1" s="29"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
@@ -5826,7 +5826,7 @@
       <c r="C2" s="60"/>
       <c r="D2" s="60"/>
       <c r="E2" s="67" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F2" s="68"/>
       <c r="G2" s="68"/>
@@ -5840,18 +5840,18 @@
       <c r="O2" s="68"/>
       <c r="P2" s="68"/>
       <c r="Q2" s="69"/>
-      <c r="R2" s="36" t="s">
+      <c r="R2" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="37"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="43">
+      <c r="S2" s="49"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="52">
         <v>45146</v>
       </c>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
       <c r="Z2" s="29"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
@@ -5862,7 +5862,7 @@
       <c r="C3" s="62"/>
       <c r="D3" s="63"/>
       <c r="E3" s="70" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F3" s="45"/>
       <c r="G3" s="45"/>
@@ -5876,18 +5876,18 @@
       <c r="O3" s="45"/>
       <c r="P3" s="45"/>
       <c r="Q3" s="45"/>
-      <c r="R3" s="36" t="s">
+      <c r="R3" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="37"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="39" t="s">
+      <c r="S3" s="49"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
       <c r="Z3" s="29"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
@@ -5908,622 +5908,622 @@
       <c r="O4" s="47"/>
       <c r="P4" s="47"/>
       <c r="Q4" s="47"/>
-      <c r="R4" s="36" t="s">
+      <c r="R4" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="37"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="43">
+      <c r="S4" s="49"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="52">
         <v>45155</v>
       </c>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
       <c r="Z4" s="29"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59" t="s">
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59" t="s">
+      <c r="J6" s="43"/>
+      <c r="K6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="59"/>
+      <c r="L6" s="43"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="59" t="s">
+      <c r="N6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="49" t="s">
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="52" t="s">
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="54" t="s">
+      <c r="B7" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54">
+      <c r="J7" s="38"/>
+      <c r="K7" s="38">
         <v>6</v>
       </c>
-      <c r="L7" s="54"/>
+      <c r="L7" s="38"/>
       <c r="M7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="54" t="s">
+      <c r="N7" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="58"/>
-      <c r="AA7" s="58"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="54" t="s">
+      <c r="B8" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54">
+      <c r="J8" s="38"/>
+      <c r="K8" s="38">
         <v>20</v>
       </c>
-      <c r="L8" s="54"/>
+      <c r="L8" s="38"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="54" t="s">
+      <c r="N8" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="58"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54" t="s">
+      <c r="B9" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54" t="s">
+      <c r="J9" s="38"/>
+      <c r="K9" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="54"/>
+      <c r="L9" s="38"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="58"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54" t="s">
+      <c r="B10" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54" t="s">
+      <c r="J10" s="38"/>
+      <c r="K10" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="54"/>
+      <c r="L10" s="38"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="58"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="53" t="s">
-        <v>172</v>
-      </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53" t="s">
+      <c r="B11" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54" t="s">
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="54"/>
+      <c r="L11" s="38"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="58"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="58"/>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="58"/>
-      <c r="AA11" s="58"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53" t="s">
+      <c r="B12" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54" t="s">
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="54"/>
+      <c r="L12" s="38"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="58"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>7</v>
       </c>
       <c r="B13" s="71" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C13" s="72"/>
       <c r="D13" s="72"/>
       <c r="E13" s="73"/>
-      <c r="F13" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="54" t="s">
+      <c r="F13" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54">
+      <c r="J13" s="38"/>
+      <c r="K13" s="38">
         <v>10</v>
       </c>
-      <c r="L13" s="54"/>
+      <c r="L13" s="38"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="58"/>
-      <c r="Z13" s="58"/>
-      <c r="AA13" s="58"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="42"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>8</v>
       </c>
-      <c r="B14" s="53" t="s">
-        <v>180</v>
-      </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="54" t="s">
-        <v>187</v>
-      </c>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54" t="s">
+      <c r="B14" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="54"/>
+      <c r="L14" s="38"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="58"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="58"/>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="58"/>
-      <c r="AA14" s="58"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>9</v>
       </c>
-      <c r="B15" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="54" t="s">
-        <v>187</v>
-      </c>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54" t="s">
+      <c r="B15" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="54"/>
+      <c r="L15" s="38"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="57"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="58"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="58"/>
-      <c r="AA15" s="58"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="42"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>10</v>
       </c>
-      <c r="B16" s="53" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53" t="s">
-        <v>126</v>
-      </c>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="54" t="s">
-        <v>187</v>
-      </c>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54" t="s">
+      <c r="B16" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="54"/>
+      <c r="L16" s="38"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="57"/>
-      <c r="U16" s="58"/>
-      <c r="V16" s="58"/>
-      <c r="W16" s="58"/>
-      <c r="X16" s="58"/>
-      <c r="Y16" s="58"/>
-      <c r="Z16" s="58"/>
-      <c r="AA16" s="58"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>11</v>
       </c>
       <c r="B17" s="71" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C17" s="72"/>
       <c r="D17" s="72"/>
       <c r="E17" s="73"/>
-      <c r="F17" s="53" t="s">
+      <c r="F17" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54" t="s">
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="54"/>
+      <c r="L17" s="38"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="54" t="s">
+      <c r="N17" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="57"/>
-      <c r="U17" s="58" t="s">
-        <v>167</v>
-      </c>
-      <c r="V17" s="58"/>
-      <c r="W17" s="58"/>
-      <c r="X17" s="58"/>
-      <c r="Y17" s="58"/>
-      <c r="Z17" s="58"/>
-      <c r="AA17" s="58"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="42"/>
+      <c r="AA17" s="42"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>12</v>
       </c>
-      <c r="B18" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="54" t="s">
+      <c r="B18" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54" t="s">
+      <c r="J18" s="38"/>
+      <c r="K18" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="54"/>
+      <c r="L18" s="38"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="57"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="58"/>
-      <c r="W18" s="58"/>
-      <c r="X18" s="58"/>
-      <c r="Y18" s="58"/>
-      <c r="Z18" s="58"/>
-      <c r="AA18" s="58"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="42"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>13</v>
       </c>
       <c r="B19" s="71" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C19" s="72"/>
       <c r="D19" s="72"/>
       <c r="E19" s="73"/>
-      <c r="F19" s="53" t="s">
-        <v>127</v>
-      </c>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="54" t="s">
+      <c r="F19" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54">
+      <c r="J19" s="38"/>
+      <c r="K19" s="38">
         <v>6</v>
       </c>
-      <c r="L19" s="54"/>
+      <c r="L19" s="38"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="57"/>
-      <c r="U19" s="58"/>
-      <c r="V19" s="58"/>
-      <c r="W19" s="58"/>
-      <c r="X19" s="58"/>
-      <c r="Y19" s="58"/>
-      <c r="Z19" s="58"/>
-      <c r="AA19" s="58"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="42"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>14</v>
       </c>
       <c r="B20" s="71" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C20" s="72"/>
       <c r="D20" s="72"/>
       <c r="E20" s="73"/>
-      <c r="F20" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="54" t="s">
+      <c r="F20" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54" t="s">
+      <c r="J20" s="38"/>
+      <c r="K20" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L20" s="54"/>
+      <c r="L20" s="38"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="57"/>
-      <c r="U20" s="58"/>
-      <c r="V20" s="58"/>
-      <c r="W20" s="58"/>
-      <c r="X20" s="58"/>
-      <c r="Y20" s="58"/>
-      <c r="Z20" s="58"/>
-      <c r="AA20" s="58"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="42"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
@@ -6535,37 +6535,139 @@
       <c r="C21" s="72"/>
       <c r="D21" s="72"/>
       <c r="E21" s="73"/>
-      <c r="F21" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="54" t="s">
+      <c r="F21" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54">
+      <c r="J21" s="38"/>
+      <c r="K21" s="38">
         <v>6</v>
       </c>
-      <c r="L21" s="54"/>
+      <c r="L21" s="38"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="57"/>
-      <c r="U21" s="58"/>
-      <c r="V21" s="58"/>
-      <c r="W21" s="58"/>
-      <c r="X21" s="58"/>
-      <c r="Y21" s="58"/>
-      <c r="Z21" s="58"/>
-      <c r="AA21" s="58"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="42"/>
+      <c r="AA21" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="126">
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="U18:AA18"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="U12:AA12"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="U13:AA13"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="U14:AA14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="N20:P20"/>
     <mergeCell ref="U15:AA15"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="U20:AA20"/>
@@ -6590,108 +6692,6 @@
     <mergeCell ref="Q19:T19"/>
     <mergeCell ref="U16:AA16"/>
     <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="U12:AA12"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="U13:AA13"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="U14:AA14"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="U18:AA18"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="U11:AA11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6715,68 +6715,68 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
-      <c r="E1" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="36" t="s">
+      <c r="E1" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="39" t="s">
+      <c r="S1" s="49"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="33" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="37"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="43">
+      <c r="S2" s="49"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="52">
         <v>45146</v>
       </c>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
@@ -6800,18 +6800,18 @@
       <c r="O3" s="45"/>
       <c r="P3" s="45"/>
       <c r="Q3" s="45"/>
-      <c r="R3" s="36" t="s">
+      <c r="R3" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="37"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="39" t="s">
+      <c r="S3" s="49"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
@@ -6831,18 +6831,18 @@
       <c r="O4" s="47"/>
       <c r="P4" s="47"/>
       <c r="Q4" s="47"/>
-      <c r="R4" s="36" t="s">
+      <c r="R4" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="37"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="43">
+      <c r="S4" s="49"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="52">
         <v>45154</v>
       </c>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="U5" s="3"/>
@@ -6856,419 +6856,419 @@
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59" t="s">
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59" t="s">
+      <c r="J6" s="43"/>
+      <c r="K6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="59"/>
+      <c r="L6" s="43"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="59" t="s">
+      <c r="N6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="49" t="s">
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="52" t="s">
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="71" t="s">
         <v>102</v>
-      </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="71" t="s">
-        <v>103</v>
       </c>
       <c r="G7" s="72"/>
       <c r="H7" s="73"/>
-      <c r="I7" s="54" t="s">
+      <c r="I7" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54">
+      <c r="J7" s="38"/>
+      <c r="K7" s="38">
         <v>5</v>
       </c>
-      <c r="L7" s="54"/>
+      <c r="L7" s="38"/>
       <c r="M7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="54" t="s">
+      <c r="N7" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="55" t="s">
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="58" t="s">
-        <v>95</v>
-      </c>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="58"/>
-      <c r="AA7" s="58"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
       <c r="F8" s="71" t="s">
         <v>44</v>
       </c>
       <c r="G8" s="72"/>
       <c r="H8" s="73"/>
-      <c r="I8" s="54" t="s">
+      <c r="I8" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54">
+      <c r="J8" s="38"/>
+      <c r="K8" s="38">
         <v>200</v>
       </c>
-      <c r="L8" s="54"/>
+      <c r="L8" s="38"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="54" t="s">
+      <c r="N8" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="58"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="53" t="s">
-        <v>172</v>
-      </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
+      <c r="B9" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
       <c r="F9" s="71" t="s">
         <v>45</v>
       </c>
       <c r="G9" s="72"/>
       <c r="H9" s="73"/>
-      <c r="I9" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54" t="s">
+      <c r="I9" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="54"/>
+      <c r="L9" s="38"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="54" t="s">
+      <c r="N9" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="57"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="41"/>
       <c r="U9" s="74"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="58"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
+      <c r="B10" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
       <c r="F10" s="71" t="s">
         <v>47</v>
       </c>
       <c r="G10" s="72"/>
       <c r="H10" s="73"/>
-      <c r="I10" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54" t="s">
+      <c r="I10" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="54"/>
+      <c r="L10" s="38"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="54" t="s">
+      <c r="N10" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="57"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="41"/>
       <c r="U10" s="74"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="58"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="75" t="s">
         <v>87</v>
-      </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="75" t="s">
-        <v>88</v>
       </c>
       <c r="G11" s="72"/>
       <c r="H11" s="73"/>
-      <c r="I11" s="54" t="s">
+      <c r="I11" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54">
+      <c r="J11" s="38"/>
+      <c r="K11" s="38">
         <v>200</v>
       </c>
-      <c r="L11" s="54"/>
+      <c r="L11" s="38"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="57"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="41"/>
       <c r="U11" s="74" t="s">
-        <v>94</v>
-      </c>
-      <c r="V11" s="58"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="58"/>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="58"/>
-      <c r="AA11" s="58"/>
+        <v>93</v>
+      </c>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="53" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54" t="s">
+      <c r="B12" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="54"/>
+      <c r="L12" s="38"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="54" t="s">
+      <c r="N12" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="58" t="s">
-        <v>167</v>
-      </c>
-      <c r="V12" s="58"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="58"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>7</v>
       </c>
-      <c r="B13" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="54" t="s">
+      <c r="B13" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54" t="s">
+      <c r="J13" s="38"/>
+      <c r="K13" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="54"/>
+      <c r="L13" s="38"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="58"/>
-      <c r="Z13" s="58"/>
-      <c r="AA13" s="58"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="42"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>8</v>
       </c>
       <c r="B14" s="71" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C14" s="72"/>
       <c r="D14" s="72"/>
       <c r="E14" s="73"/>
-      <c r="F14" s="53" t="s">
-        <v>127</v>
-      </c>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="54" t="s">
+      <c r="F14" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54">
+      <c r="J14" s="38"/>
+      <c r="K14" s="38">
         <v>6</v>
       </c>
-      <c r="L14" s="54"/>
+      <c r="L14" s="38"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="58"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="58"/>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="58"/>
-      <c r="AA14" s="58"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>9</v>
       </c>
       <c r="B15" s="71" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C15" s="72"/>
       <c r="D15" s="72"/>
       <c r="E15" s="73"/>
-      <c r="F15" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="54" t="s">
+      <c r="F15" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54" t="s">
+      <c r="J15" s="38"/>
+      <c r="K15" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="54"/>
+      <c r="L15" s="38"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="57"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="58"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="58"/>
-      <c r="AA15" s="58"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="42"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
@@ -7280,37 +7280,112 @@
       <c r="C16" s="72"/>
       <c r="D16" s="72"/>
       <c r="E16" s="73"/>
-      <c r="F16" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="54" t="s">
+      <c r="F16" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54">
+      <c r="J16" s="38"/>
+      <c r="K16" s="38">
         <v>6</v>
       </c>
-      <c r="L16" s="54"/>
+      <c r="L16" s="38"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="57"/>
-      <c r="U16" s="58"/>
-      <c r="V16" s="58"/>
-      <c r="W16" s="58"/>
-      <c r="X16" s="58"/>
-      <c r="Y16" s="58"/>
-      <c r="Z16" s="58"/>
-      <c r="AA16" s="58"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="89">
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="U15:AA15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="U16:AA16"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="U13:AA13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="U14:AA14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
     <mergeCell ref="Q11:T11"/>
     <mergeCell ref="U11:AA11"/>
     <mergeCell ref="B12:E12"/>
@@ -7325,13 +7400,780 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="U10:AA10"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79AA1B0E-65A6-441D-990E-73926E3709B8}">
+  <dimension ref="A1:AA30"/>
+  <sheetViews>
+    <sheetView topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12:P12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="49"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A2" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="49"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="52">
+        <v>45146</v>
+      </c>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="49"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" s="49"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="52">
+        <v>45154</v>
+      </c>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="15"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="43"/>
+      <c r="M6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38">
+        <v>5</v>
+      </c>
+      <c r="L7" s="38"/>
+      <c r="M7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38">
+        <v>1</v>
+      </c>
+      <c r="L8" s="38"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="72"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="38"/>
+      <c r="K9" s="39">
+        <v>1</v>
+      </c>
+      <c r="L9" s="41"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="40"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="75"/>
+      <c r="V9" s="78"/>
+      <c r="W9" s="78"/>
+      <c r="X9" s="78"/>
+      <c r="Y9" s="78"/>
+      <c r="Z9" s="78"/>
+      <c r="AA9" s="79"/>
+    </row>
+    <row r="10" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38">
+        <v>200</v>
+      </c>
+      <c r="L10" s="38"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="40"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
+    </row>
+    <row r="11" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="38"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
+    </row>
+    <row r="12" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="38"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+    </row>
+    <row r="13" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>7</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38">
+        <v>200</v>
+      </c>
+      <c r="L13" s="38"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="42"/>
+    </row>
+    <row r="14" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <v>8</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="38"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42"/>
+    </row>
+    <row r="15" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>9</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="38"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="42"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>10</v>
+      </c>
+      <c r="B16" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38">
+        <v>6</v>
+      </c>
+      <c r="L16" s="38"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>11</v>
+      </c>
+      <c r="B17" s="71" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="38"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="42"/>
+      <c r="AA17" s="42"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A18" s="2">
+        <v>12</v>
+      </c>
+      <c r="B18" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38">
+        <v>6</v>
+      </c>
+      <c r="L18" s="38"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="42"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A30" s="13"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="77"/>
+      <c r="P30" s="77"/>
+      <c r="Q30" s="77"/>
+      <c r="R30" s="77"/>
+      <c r="S30" s="77"/>
+      <c r="T30" s="77"/>
+      <c r="U30" s="76"/>
+      <c r="V30" s="76"/>
+      <c r="W30" s="76"/>
+      <c r="X30" s="76"/>
+      <c r="Y30" s="76"/>
+      <c r="Z30" s="76"/>
+      <c r="AA30" s="76"/>
+    </row>
+  </sheetData>
+  <mergeCells count="110">
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="U17:AA17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="U18:AA18"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="U15:AA15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="U16:AA16"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="U30:AA30"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="Q30:T30"/>
+    <mergeCell ref="U9:AA9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="B12:E12"/>
     <mergeCell ref="U8:AA8"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="F8:H8"/>
@@ -7365,13 +8207,17 @@
     <mergeCell ref="E2:Q2"/>
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="U12:AA12"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:P11"/>
     <mergeCell ref="Q13:T13"/>
     <mergeCell ref="U13:AA13"/>
     <mergeCell ref="B14:E14"/>
@@ -7386,852 +8232,6 @@
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="N13:P13"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="U15:AA15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="U16:AA16"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="N15:P15"/>
-  </mergeCells>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79AA1B0E-65A6-441D-990E-73926E3709B8}">
-  <dimension ref="A1:AA30"/>
-  <sheetViews>
-    <sheetView topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12:P12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" s="37"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="43">
-        <v>45146</v>
-      </c>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" s="37"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="S4" s="37"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="43">
-        <v>45154</v>
-      </c>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="15"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="59"/>
-      <c r="M6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54">
-        <v>5</v>
-      </c>
-      <c r="L7" s="54"/>
-      <c r="M7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="58"/>
-      <c r="AA7" s="58"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
-        <v>2</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54">
-        <v>1</v>
-      </c>
-      <c r="L8" s="54"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="58"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
-        <v>3</v>
-      </c>
-      <c r="B9" s="71" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="72"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="54"/>
-      <c r="K9" s="55">
-        <v>1</v>
-      </c>
-      <c r="L9" s="57"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" s="56"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="75"/>
-      <c r="V9" s="78"/>
-      <c r="W9" s="78"/>
-      <c r="X9" s="78"/>
-      <c r="Y9" s="78"/>
-      <c r="Z9" s="78"/>
-      <c r="AA9" s="79"/>
-    </row>
-    <row r="10" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
-        <v>4</v>
-      </c>
-      <c r="B10" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54">
-        <v>200</v>
-      </c>
-      <c r="L10" s="54"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10" s="56"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="58"/>
-    </row>
-    <row r="11" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
-        <v>5</v>
-      </c>
-      <c r="B11" s="53" t="s">
-        <v>172</v>
-      </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="54"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="58"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="58"/>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="58"/>
-      <c r="AA11" s="58"/>
-    </row>
-    <row r="12" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
-        <v>6</v>
-      </c>
-      <c r="B12" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="54"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="54"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="58"/>
-    </row>
-    <row r="13" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
-        <v>7</v>
-      </c>
-      <c r="B13" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54">
-        <v>200</v>
-      </c>
-      <c r="L13" s="54"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="54"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="58"/>
-      <c r="Z13" s="58"/>
-      <c r="AA13" s="58"/>
-    </row>
-    <row r="14" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="2">
-        <v>8</v>
-      </c>
-      <c r="B14" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="54"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="58" t="s">
-        <v>167</v>
-      </c>
-      <c r="V14" s="58"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="58"/>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="58"/>
-      <c r="AA14" s="58"/>
-    </row>
-    <row r="15" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="2">
-        <v>9</v>
-      </c>
-      <c r="B15" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="54"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="57"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="58"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="58"/>
-      <c r="AA15" s="58"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A16" s="2">
-        <v>10</v>
-      </c>
-      <c r="B16" s="71" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="53" t="s">
-        <v>127</v>
-      </c>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54">
-        <v>6</v>
-      </c>
-      <c r="L16" s="54"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="57"/>
-      <c r="U16" s="58"/>
-      <c r="V16" s="58"/>
-      <c r="W16" s="58"/>
-      <c r="X16" s="58"/>
-      <c r="Y16" s="58"/>
-      <c r="Z16" s="58"/>
-      <c r="AA16" s="58"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A17" s="2">
-        <v>11</v>
-      </c>
-      <c r="B17" s="71" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="54"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="57"/>
-      <c r="U17" s="58"/>
-      <c r="V17" s="58"/>
-      <c r="W17" s="58"/>
-      <c r="X17" s="58"/>
-      <c r="Y17" s="58"/>
-      <c r="Z17" s="58"/>
-      <c r="AA17" s="58"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A18" s="2">
-        <v>12</v>
-      </c>
-      <c r="B18" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54">
-        <v>6</v>
-      </c>
-      <c r="L18" s="54"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="57"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="58"/>
-      <c r="W18" s="58"/>
-      <c r="X18" s="58"/>
-      <c r="Y18" s="58"/>
-      <c r="Z18" s="58"/>
-      <c r="AA18" s="58"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A30" s="13"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="77"/>
-      <c r="O30" s="77"/>
-      <c r="P30" s="77"/>
-      <c r="Q30" s="77"/>
-      <c r="R30" s="77"/>
-      <c r="S30" s="77"/>
-      <c r="T30" s="77"/>
-      <c r="U30" s="76"/>
-      <c r="V30" s="76"/>
-      <c r="W30" s="76"/>
-      <c r="X30" s="76"/>
-      <c r="Y30" s="76"/>
-      <c r="Z30" s="76"/>
-      <c r="AA30" s="76"/>
-    </row>
-  </sheetData>
-  <mergeCells count="110">
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="U13:AA13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="U14:AA14"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="U12:AA12"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="U30:AA30"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="Q30:T30"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="U11:AA11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="U15:AA15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="U16:AA16"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="U17:AA17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="U18:AA18"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="N17:P17"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8249,14 +8249,14 @@
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F1" s="68"/>
       <c r="G1" s="68"/>
@@ -8270,18 +8270,18 @@
       <c r="O1" s="68"/>
       <c r="P1" s="68"/>
       <c r="Q1" s="68"/>
-      <c r="R1" s="36" t="s">
+      <c r="R1" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="39" t="s">
+      <c r="S1" s="49"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
       <c r="Z1" s="29"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
@@ -8292,7 +8292,7 @@
       <c r="C2" s="60"/>
       <c r="D2" s="60"/>
       <c r="E2" s="67" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="68"/>
       <c r="G2" s="68"/>
@@ -8306,18 +8306,18 @@
       <c r="O2" s="68"/>
       <c r="P2" s="68"/>
       <c r="Q2" s="69"/>
-      <c r="R2" s="36" t="s">
+      <c r="R2" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="37"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="43">
+      <c r="S2" s="49"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="52">
         <v>45146</v>
       </c>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
       <c r="Z2" s="29"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
@@ -8328,7 +8328,7 @@
       <c r="C3" s="62"/>
       <c r="D3" s="63"/>
       <c r="E3" s="70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F3" s="45"/>
       <c r="G3" s="45"/>
@@ -8342,18 +8342,18 @@
       <c r="O3" s="45"/>
       <c r="P3" s="45"/>
       <c r="Q3" s="45"/>
-      <c r="R3" s="36" t="s">
+      <c r="R3" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="37"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="39" t="s">
+      <c r="S3" s="49"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
       <c r="Z3" s="29"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
@@ -8374,278 +8374,320 @@
       <c r="O4" s="47"/>
       <c r="P4" s="47"/>
       <c r="Q4" s="47"/>
-      <c r="R4" s="36" t="s">
+      <c r="R4" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="37"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="43">
+      <c r="S4" s="49"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="52">
         <v>45154</v>
       </c>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
       <c r="Z4" s="29"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59" t="s">
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59" t="s">
+      <c r="J6" s="43"/>
+      <c r="K6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="59"/>
+      <c r="L6" s="43"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="59" t="s">
+      <c r="N6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="49" t="s">
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="52" t="s">
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="54" t="s">
+      <c r="B7" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54">
+      <c r="J7" s="38"/>
+      <c r="K7" s="38">
         <v>6</v>
       </c>
-      <c r="L7" s="54"/>
+      <c r="L7" s="38"/>
       <c r="M7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="54" t="s">
+      <c r="N7" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="58"/>
-      <c r="AA7" s="58"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="54" t="s">
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54">
+      <c r="J8" s="38"/>
+      <c r="K8" s="38">
         <v>5</v>
       </c>
-      <c r="L8" s="54"/>
+      <c r="L8" s="38"/>
       <c r="M8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="54" t="s">
+      <c r="N8" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="58"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="53" t="s">
-        <v>191</v>
-      </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53" t="s">
-        <v>182</v>
-      </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54" t="s">
+      <c r="B9" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54" t="s">
+      <c r="J9" s="38"/>
+      <c r="K9" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="54"/>
+      <c r="L9" s="38"/>
       <c r="M9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="54" t="s">
+      <c r="N9" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="58"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54" t="s">
+      <c r="B10" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="54"/>
+      <c r="L10" s="38"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="54" t="s">
+      <c r="N10" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="58"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53" t="s">
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="54" t="s">
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54">
+      <c r="J11" s="38"/>
+      <c r="K11" s="38">
         <v>200</v>
       </c>
-      <c r="L11" s="54"/>
+      <c r="L11" s="38"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="58"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="58"/>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="58"/>
-      <c r="AA11" s="58"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:T8"/>
     <mergeCell ref="U10:AA10"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="F11:H11"/>
@@ -8660,48 +8702,6 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="N10:P10"/>
     <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書/DB設計書.xlsx
+++ b/設計書/DB設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m-matsuka\Desktop\GitHub_クローン\company_evaluation\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA684F2-0151-4954-BF82-68F3E2A0C800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AF3839-B60E-46A5-989E-1C516BF1ADAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{49359F61-E175-4E64-83B2-4241FAD3E8F3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="6" xr2:uid="{49359F61-E175-4E64-83B2-4241FAD3E8F3}"/>
   </bookViews>
   <sheets>
     <sheet name="E-R図" sheetId="10" r:id="rId1"/>
@@ -412,10 +412,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ポイントテーブル</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>会社評価の項目を管理するためのテーブル</t>
     <rPh sb="0" eb="4">
       <t>カイシャヒョウカ</t>
@@ -1129,6 +1125,13 @@
   <si>
     <t>cl_rank</t>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>会社評価テーブル</t>
+    <rPh sb="0" eb="4">
+      <t>カイシャヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1464,6 +1467,54 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1496,54 +1547,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2582,18 +2585,18 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B3" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B5" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H5" s="27" t="s">
         <v>59</v>
@@ -2601,38 +2604,38 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B6" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.4">
       <c r="D7" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F7" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" s="30" t="s">
         <v>136</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.4">
       <c r="D8" s="30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.4">
@@ -2640,115 +2643,115 @@
         <v>50</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B10" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B11" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>48</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B12" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B14" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B15" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.4">
       <c r="D16" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D17" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H18" s="27" t="s">
         <v>60</v>
@@ -2756,89 +2759,89 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B19" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B21" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F21" s="25" t="s">
         <v>21</v>
       </c>
       <c r="H21" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B22" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B23" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B24" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B25" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H25" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
       <c r="H26" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="H27" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
@@ -2846,7 +2849,7 @@
         <v>38</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.4">
@@ -2854,7 +2857,7 @@
         <v>39</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.4">
@@ -2862,7 +2865,7 @@
         <v>40</v>
       </c>
       <c r="H30" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2880,21 +2883,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DC8C6B-44BC-428E-8430-43D087E92B4D}">
   <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42"/>
       <c r="E1" s="67" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F1" s="68"/>
       <c r="G1" s="68"/>
@@ -2908,18 +2911,18 @@
       <c r="O1" s="68"/>
       <c r="P1" s="68"/>
       <c r="Q1" s="68"/>
-      <c r="R1" s="48" t="s">
+      <c r="R1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="51" t="s">
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
       <c r="Z1" s="29"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
@@ -2930,7 +2933,7 @@
       <c r="C2" s="60"/>
       <c r="D2" s="60"/>
       <c r="E2" s="67" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F2" s="68"/>
       <c r="G2" s="68"/>
@@ -2944,18 +2947,18 @@
       <c r="O2" s="68"/>
       <c r="P2" s="68"/>
       <c r="Q2" s="69"/>
-      <c r="R2" s="48" t="s">
+      <c r="R2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="52">
+      <c r="S2" s="37"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="43">
         <v>45146</v>
       </c>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
       <c r="Z2" s="29"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
@@ -2966,7 +2969,7 @@
       <c r="C3" s="62"/>
       <c r="D3" s="63"/>
       <c r="E3" s="70" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F3" s="45"/>
       <c r="G3" s="45"/>
@@ -2980,18 +2983,18 @@
       <c r="O3" s="45"/>
       <c r="P3" s="45"/>
       <c r="Q3" s="45"/>
-      <c r="R3" s="48" t="s">
+      <c r="R3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="49"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="51" t="s">
+      <c r="S3" s="37"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
       <c r="Z3" s="29"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
@@ -3012,265 +3015,242 @@
       <c r="O4" s="47"/>
       <c r="P4" s="47"/>
       <c r="Q4" s="47"/>
-      <c r="R4" s="48" t="s">
+      <c r="R4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="52">
+      <c r="S4" s="37"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="43">
         <v>45154</v>
       </c>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
       <c r="Z4" s="29"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43" t="s">
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43" t="s">
+      <c r="J6" s="59"/>
+      <c r="K6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="43"/>
+      <c r="L6" s="59"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="N6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="33" t="s">
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="36" t="s">
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38" t="s">
+      <c r="B7" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38">
+      <c r="J7" s="54"/>
+      <c r="K7" s="54">
         <v>6</v>
       </c>
-      <c r="L7" s="38"/>
+      <c r="L7" s="54"/>
       <c r="M7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="38" t="s">
+      <c r="N7" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="38" t="s">
+      <c r="B8" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38">
+      <c r="J8" s="54"/>
+      <c r="K8" s="54">
         <v>5</v>
       </c>
-      <c r="L8" s="38"/>
+      <c r="L8" s="54"/>
       <c r="M8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="38" t="s">
+      <c r="N8" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="42"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="38" t="s">
+      <c r="B9" s="53" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53" t="s">
+        <v>180</v>
+      </c>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38" t="s">
+      <c r="J9" s="54"/>
+      <c r="K9" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="38"/>
+      <c r="L9" s="54"/>
       <c r="M9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="38" t="s">
+      <c r="N9" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="42"/>
-      <c r="AA9" s="42"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37" t="s">
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="38" t="s">
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38">
+      <c r="J10" s="54"/>
+      <c r="K10" s="54">
         <v>200</v>
       </c>
-      <c r="L10" s="38"/>
+      <c r="L10" s="54"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="42"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
     <mergeCell ref="Q10:T10"/>
     <mergeCell ref="U10:AA10"/>
     <mergeCell ref="U8:AA8"/>
@@ -3287,11 +3267,34 @@
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="N8:P8"/>
     <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3309,12 +3312,12 @@
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42"/>
       <c r="E1" s="67" t="s">
         <v>30</v>
       </c>
@@ -3330,18 +3333,18 @@
       <c r="O1" s="68"/>
       <c r="P1" s="68"/>
       <c r="Q1" s="68"/>
-      <c r="R1" s="48" t="s">
+      <c r="R1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="51" t="s">
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
       <c r="Z1" s="14"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
@@ -3366,18 +3369,18 @@
       <c r="O2" s="68"/>
       <c r="P2" s="68"/>
       <c r="Q2" s="69"/>
-      <c r="R2" s="48" t="s">
+      <c r="R2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="52">
+      <c r="S2" s="37"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="43">
         <v>45069</v>
       </c>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
       <c r="Z2" s="16"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
@@ -3402,18 +3405,18 @@
       <c r="O3" s="45"/>
       <c r="P3" s="45"/>
       <c r="Q3" s="45"/>
-      <c r="R3" s="48" t="s">
+      <c r="R3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="49"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="51" t="s">
+      <c r="S3" s="37"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
       <c r="Z3" s="17"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
@@ -3434,248 +3437,248 @@
       <c r="O4" s="47"/>
       <c r="P4" s="47"/>
       <c r="Q4" s="47"/>
-      <c r="R4" s="48" t="s">
+      <c r="R4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="52">
+      <c r="S4" s="37"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="43">
         <v>45072</v>
       </c>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
       <c r="Z4" s="18"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43" t="s">
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43" t="s">
+      <c r="J6" s="59"/>
+      <c r="K6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="43"/>
+      <c r="L6" s="59"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="N6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="33" t="s">
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="36" t="s">
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37" t="s">
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38" t="s">
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38">
+      <c r="J7" s="54"/>
+      <c r="K7" s="54">
         <v>6</v>
       </c>
-      <c r="L7" s="38"/>
+      <c r="L7" s="54"/>
       <c r="M7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="38" t="s">
+      <c r="N7" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="39" t="s">
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37" t="s">
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="38" t="s">
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38">
+      <c r="J8" s="54"/>
+      <c r="K8" s="54">
         <v>2</v>
       </c>
-      <c r="L8" s="38"/>
+      <c r="L8" s="54"/>
       <c r="M8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="38" t="s">
+      <c r="N8" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="39" t="s">
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="42"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37" t="s">
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="38" t="s">
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38" t="s">
+      <c r="J9" s="54"/>
+      <c r="K9" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="38"/>
+      <c r="L9" s="54"/>
       <c r="M9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="38" t="s">
+      <c r="N9" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="39" t="s">
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="42" t="s">
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="42"/>
-      <c r="AA9" s="42"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37" t="s">
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="38" t="s">
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38">
+      <c r="J10" s="54"/>
+      <c r="K10" s="54">
         <v>3</v>
       </c>
-      <c r="L10" s="38"/>
+      <c r="L10" s="54"/>
       <c r="M10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N10" s="38" t="s">
+      <c r="N10" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38" t="s">
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="42"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="13"/>
@@ -3882,6 +3885,90 @@
     </row>
   </sheetData>
   <mergeCells count="98">
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="U17:AA17"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="U15:AA15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="U16:AA16"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="U13:AA13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="U14:AA14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="U12:AA12"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:T6"/>
     <mergeCell ref="U3:Y3"/>
     <mergeCell ref="R4:T4"/>
     <mergeCell ref="U4:Y4"/>
@@ -3896,90 +3983,6 @@
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="U2:Y2"/>
     <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="U11:AA11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="U12:AA12"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="U13:AA13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="U14:AA14"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="U15:AA15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="U16:AA16"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="U17:AA17"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4003,68 +4006,68 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A2" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="54" t="s">
-        <v>174</v>
-      </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="48" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="52">
+      <c r="S2" s="37"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="43">
         <v>45148</v>
       </c>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
@@ -4074,7 +4077,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
       <c r="E3" s="44" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F3" s="45"/>
       <c r="G3" s="45"/>
@@ -4088,18 +4091,18 @@
       <c r="O3" s="45"/>
       <c r="P3" s="45"/>
       <c r="Q3" s="45"/>
-      <c r="R3" s="48" t="s">
+      <c r="R3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="49"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="51" t="s">
+      <c r="S3" s="37"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
@@ -4119,18 +4122,18 @@
       <c r="O4" s="47"/>
       <c r="P4" s="47"/>
       <c r="Q4" s="47"/>
-      <c r="R4" s="48" t="s">
+      <c r="R4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="52">
+      <c r="S4" s="37"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="43">
         <v>45154</v>
       </c>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="U5" s="3"/>
@@ -4144,110 +4147,98 @@
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43" t="s">
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43" t="s">
+      <c r="J6" s="59"/>
+      <c r="K6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="43"/>
+      <c r="L6" s="59"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="N6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="33" t="s">
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="36" t="s">
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53" t="s">
         <v>176</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38" t="s">
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="L7" s="38"/>
+      <c r="L7" s="54"/>
       <c r="M7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="38" t="s">
+      <c r="N7" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="39" t="s">
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="42" t="s">
-        <v>178</v>
-      </c>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="58" t="s">
+        <v>177</v>
+      </c>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="U6:AA6"/>
     <mergeCell ref="B7:E7"/>
@@ -4262,6 +4253,18 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="N6:P6"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4272,7 +4275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE2AC0F-C4AF-466C-B027-8F5E6491BC17}">
   <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
@@ -4285,68 +4288,68 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="48" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="51" t="s">
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="54" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="48" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="52">
+      <c r="S2" s="37"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="43">
         <v>45146</v>
       </c>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
@@ -4370,18 +4373,18 @@
       <c r="O3" s="45"/>
       <c r="P3" s="45"/>
       <c r="Q3" s="45"/>
-      <c r="R3" s="48" t="s">
+      <c r="R3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="49"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="51" t="s">
+      <c r="S3" s="37"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
@@ -4401,18 +4404,18 @@
       <c r="O4" s="47"/>
       <c r="P4" s="47"/>
       <c r="Q4" s="47"/>
-      <c r="R4" s="48" t="s">
+      <c r="R4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="52">
+      <c r="S4" s="37"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="43">
         <v>45155</v>
       </c>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="U5" s="3"/>
@@ -4426,319 +4429,342 @@
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43" t="s">
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43" t="s">
+      <c r="J6" s="59"/>
+      <c r="K6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="43"/>
+      <c r="L6" s="59"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="N6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="33" t="s">
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="36" t="s">
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38" t="s">
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38">
+      <c r="J7" s="54"/>
+      <c r="K7" s="54">
         <v>2</v>
       </c>
-      <c r="L7" s="38"/>
+      <c r="L7" s="54"/>
       <c r="M7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="38" t="s">
+      <c r="N7" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="39" t="s">
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37" t="s">
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38" t="s">
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="38"/>
+      <c r="L8" s="54"/>
       <c r="M8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="38" t="s">
+      <c r="N8" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="39" t="s">
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="42"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37" t="s">
+      <c r="B9" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38" t="s">
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="38"/>
+      <c r="L9" s="54"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="38" t="s">
+      <c r="N9" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="42"/>
-      <c r="AA9" s="42"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37" t="s">
+      <c r="B10" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38" t="s">
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="38"/>
+      <c r="L10" s="54"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="38" t="s">
+      <c r="N10" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="42"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37" t="s">
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="38" t="s">
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="L11" s="38"/>
+      <c r="L11" s="54"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="38" t="s">
+      <c r="N11" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="42"/>
-      <c r="Z11" s="42"/>
-      <c r="AA11" s="42"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37" t="s">
+      <c r="B12" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38" t="s">
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="38"/>
+      <c r="L12" s="54"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="38" t="s">
+      <c r="N12" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="42"/>
-      <c r="Z12" s="42"/>
-      <c r="AA12" s="42"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="U12:AA12"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:T12"/>
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="U6:AA6"/>
     <mergeCell ref="B7:E7"/>
@@ -4753,41 +4779,18 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="N6:P6"/>
-    <mergeCell ref="U12:AA12"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="U11:AA11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4805,14 +4808,14 @@
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42"/>
       <c r="E1" s="67" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F1" s="68"/>
       <c r="G1" s="68"/>
@@ -4826,18 +4829,18 @@
       <c r="O1" s="68"/>
       <c r="P1" s="68"/>
       <c r="Q1" s="68"/>
-      <c r="R1" s="48" t="s">
+      <c r="R1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="51" t="s">
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
       <c r="Z1" s="29"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
@@ -4848,7 +4851,7 @@
       <c r="C2" s="60"/>
       <c r="D2" s="60"/>
       <c r="E2" s="67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F2" s="68"/>
       <c r="G2" s="68"/>
@@ -4862,18 +4865,18 @@
       <c r="O2" s="68"/>
       <c r="P2" s="68"/>
       <c r="Q2" s="69"/>
-      <c r="R2" s="48" t="s">
+      <c r="R2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="52">
+      <c r="S2" s="37"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="43">
         <v>45146</v>
       </c>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
       <c r="Z2" s="29"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
@@ -4884,7 +4887,7 @@
       <c r="C3" s="62"/>
       <c r="D3" s="63"/>
       <c r="E3" s="70" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F3" s="45"/>
       <c r="G3" s="45"/>
@@ -4898,18 +4901,18 @@
       <c r="O3" s="45"/>
       <c r="P3" s="45"/>
       <c r="Q3" s="45"/>
-      <c r="R3" s="48" t="s">
+      <c r="R3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="49"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="51" t="s">
+      <c r="S3" s="37"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
       <c r="Z3" s="29"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
@@ -4930,357 +4933,399 @@
       <c r="O4" s="47"/>
       <c r="P4" s="47"/>
       <c r="Q4" s="47"/>
-      <c r="R4" s="48" t="s">
+      <c r="R4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="52">
+      <c r="S4" s="37"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="43">
         <v>45154</v>
       </c>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
       <c r="Z4" s="29"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43" t="s">
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43" t="s">
+      <c r="J6" s="59"/>
+      <c r="K6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="43"/>
+      <c r="L6" s="59"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="N6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="33" t="s">
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="36" t="s">
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38" t="s">
+      <c r="B7" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="38"/>
+      <c r="L7" s="54"/>
       <c r="M7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="38" t="s">
+      <c r="N7" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38" t="s">
+      <c r="B8" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="38"/>
+      <c r="L8" s="54"/>
       <c r="M8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="38" t="s">
+      <c r="N8" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="42"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38" t="s">
+      <c r="B9" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="38"/>
+      <c r="L9" s="54"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="42"/>
-      <c r="AA9" s="42"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38" t="s">
+      <c r="B10" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="38"/>
+      <c r="L10" s="54"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="42"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38" t="s">
+      <c r="B11" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="38"/>
+      <c r="L11" s="54"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="42"/>
-      <c r="Z11" s="42"/>
-      <c r="AA11" s="42"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38" t="s">
+      <c r="B12" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="38"/>
+      <c r="L12" s="54"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="42"/>
-      <c r="Z12" s="42"/>
-      <c r="AA12" s="42"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="58"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>7</v>
       </c>
-      <c r="B13" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38" t="s">
+      <c r="B13" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="38"/>
+      <c r="L13" s="54"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="42"/>
-      <c r="Z13" s="42"/>
-      <c r="AA13" s="42"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="U12:AA12"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="U13:AA13"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="R3:T3"/>
     <mergeCell ref="Q10:T10"/>
     <mergeCell ref="U10:AA10"/>
     <mergeCell ref="Q11:T11"/>
@@ -5295,55 +5340,13 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="N11:P11"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="U12:AA12"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="U13:AA13"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5367,68 +5370,68 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
-      <c r="E1" s="54" t="s">
-        <v>194</v>
-      </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="48" t="s">
+      <c r="E1" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="51" t="s">
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="54" t="s">
-        <v>193</v>
-      </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="48" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="52">
+      <c r="S2" s="37"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="43">
         <v>45147</v>
       </c>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
@@ -5438,7 +5441,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
       <c r="E3" s="44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F3" s="45"/>
       <c r="G3" s="45"/>
@@ -5452,18 +5455,18 @@
       <c r="O3" s="45"/>
       <c r="P3" s="45"/>
       <c r="Q3" s="45"/>
-      <c r="R3" s="48" t="s">
+      <c r="R3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="49"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="51" t="s">
+      <c r="S3" s="37"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
@@ -5483,18 +5486,18 @@
       <c r="O4" s="47"/>
       <c r="P4" s="47"/>
       <c r="Q4" s="47"/>
-      <c r="R4" s="48" t="s">
+      <c r="R4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="52">
+      <c r="S4" s="37"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="43">
         <v>45154</v>
       </c>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="U5" s="3"/>
@@ -5508,236 +5511,231 @@
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43" t="s">
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43" t="s">
+      <c r="J6" s="59"/>
+      <c r="K6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="43"/>
+      <c r="L6" s="59"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="N6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="33" t="s">
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="36" t="s">
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38" t="s">
+      <c r="B7" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38">
+      <c r="J7" s="54"/>
+      <c r="K7" s="54">
         <v>10</v>
       </c>
-      <c r="L7" s="38"/>
+      <c r="L7" s="54"/>
       <c r="M7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="38" t="s">
+      <c r="N7" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="39" t="s">
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="38" t="s">
+      <c r="B8" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53" t="s">
+        <v>183</v>
+      </c>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38">
+      <c r="J8" s="54"/>
+      <c r="K8" s="54">
         <v>20</v>
       </c>
-      <c r="L8" s="38"/>
+      <c r="L8" s="54"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="38" t="s">
+      <c r="N8" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="42"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="38" t="s">
+      <c r="B9" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38">
+      <c r="J9" s="54"/>
+      <c r="K9" s="54">
         <v>10</v>
       </c>
-      <c r="L9" s="38"/>
+      <c r="L9" s="54"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="38" t="s">
+      <c r="N9" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="42"/>
-      <c r="AA9" s="42"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="38" t="s">
+      <c r="B10" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38">
+      <c r="J10" s="54"/>
+      <c r="K10" s="54">
         <v>10</v>
       </c>
-      <c r="L10" s="38"/>
+      <c r="L10" s="54"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="42"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:T8"/>
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="U6:AA6"/>
     <mergeCell ref="B7:E7"/>
@@ -5752,20 +5750,25 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="N6:P6"/>
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5783,14 +5786,14 @@
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42"/>
       <c r="E1" s="67" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F1" s="68"/>
       <c r="G1" s="68"/>
@@ -5804,18 +5807,18 @@
       <c r="O1" s="68"/>
       <c r="P1" s="68"/>
       <c r="Q1" s="68"/>
-      <c r="R1" s="48" t="s">
+      <c r="R1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="51" t="s">
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
       <c r="Z1" s="29"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
@@ -5826,7 +5829,7 @@
       <c r="C2" s="60"/>
       <c r="D2" s="60"/>
       <c r="E2" s="67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F2" s="68"/>
       <c r="G2" s="68"/>
@@ -5840,18 +5843,18 @@
       <c r="O2" s="68"/>
       <c r="P2" s="68"/>
       <c r="Q2" s="69"/>
-      <c r="R2" s="48" t="s">
+      <c r="R2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="52">
+      <c r="S2" s="37"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="43">
         <v>45146</v>
       </c>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
       <c r="Z2" s="29"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
@@ -5862,7 +5865,7 @@
       <c r="C3" s="62"/>
       <c r="D3" s="63"/>
       <c r="E3" s="70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F3" s="45"/>
       <c r="G3" s="45"/>
@@ -5876,18 +5879,18 @@
       <c r="O3" s="45"/>
       <c r="P3" s="45"/>
       <c r="Q3" s="45"/>
-      <c r="R3" s="48" t="s">
+      <c r="R3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="49"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="51" t="s">
+      <c r="S3" s="37"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
       <c r="Z3" s="29"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
@@ -5908,622 +5911,622 @@
       <c r="O4" s="47"/>
       <c r="P4" s="47"/>
       <c r="Q4" s="47"/>
-      <c r="R4" s="48" t="s">
+      <c r="R4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="52">
+      <c r="S4" s="37"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="43">
         <v>45155</v>
       </c>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
       <c r="Z4" s="29"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43" t="s">
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43" t="s">
+      <c r="J6" s="59"/>
+      <c r="K6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="43"/>
+      <c r="L6" s="59"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="N6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="33" t="s">
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="36" t="s">
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38" t="s">
+      <c r="B7" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38">
+      <c r="J7" s="54"/>
+      <c r="K7" s="54">
         <v>6</v>
       </c>
-      <c r="L7" s="38"/>
+      <c r="L7" s="54"/>
       <c r="M7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="38" t="s">
+      <c r="N7" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="38" t="s">
+      <c r="B8" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38">
+      <c r="J8" s="54"/>
+      <c r="K8" s="54">
         <v>20</v>
       </c>
-      <c r="L8" s="38"/>
+      <c r="L8" s="54"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="38" t="s">
+      <c r="N8" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="42"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="38" t="s">
+      <c r="B9" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38" t="s">
+      <c r="J9" s="54"/>
+      <c r="K9" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="38"/>
+      <c r="L9" s="54"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="42"/>
-      <c r="AA9" s="42"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="38" t="s">
+      <c r="B10" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38" t="s">
+      <c r="J10" s="54"/>
+      <c r="K10" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="38"/>
+      <c r="L10" s="54"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="42"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37" t="s">
+      <c r="B11" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38" t="s">
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="38"/>
+      <c r="L11" s="54"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="42"/>
-      <c r="Z11" s="42"/>
-      <c r="AA11" s="42"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37" t="s">
+      <c r="B12" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38" t="s">
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="38"/>
+      <c r="L12" s="54"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="42"/>
-      <c r="Z12" s="42"/>
-      <c r="AA12" s="42"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="58"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>7</v>
       </c>
       <c r="B13" s="71" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C13" s="72"/>
       <c r="D13" s="72"/>
       <c r="E13" s="73"/>
-      <c r="F13" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="38" t="s">
+      <c r="F13" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38">
+      <c r="J13" s="54"/>
+      <c r="K13" s="54">
         <v>10</v>
       </c>
-      <c r="L13" s="38"/>
+      <c r="L13" s="54"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="42"/>
-      <c r="Z13" s="42"/>
-      <c r="AA13" s="42"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="58"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>8</v>
       </c>
-      <c r="B14" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38" t="s">
+      <c r="B14" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="38"/>
+      <c r="L14" s="54"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="42"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="42"/>
-      <c r="Z14" s="42"/>
-      <c r="AA14" s="42"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="58"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>9</v>
       </c>
-      <c r="B15" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38" t="s">
+      <c r="B15" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="38"/>
+      <c r="L15" s="54"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="42"/>
-      <c r="Y15" s="42"/>
-      <c r="Z15" s="42"/>
-      <c r="AA15" s="42"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="58"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>10</v>
       </c>
-      <c r="B16" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38" t="s">
+      <c r="B16" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="38"/>
+      <c r="L16" s="54"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="42"/>
-      <c r="AA16" s="42"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="58"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>11</v>
       </c>
       <c r="B17" s="71" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C17" s="72"/>
       <c r="D17" s="72"/>
       <c r="E17" s="73"/>
-      <c r="F17" s="37" t="s">
+      <c r="F17" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38" t="s">
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="38"/>
+      <c r="L17" s="54"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="38" t="s">
+      <c r="N17" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="V17" s="42"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="42"/>
-      <c r="Z17" s="42"/>
-      <c r="AA17" s="42"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="V17" s="58"/>
+      <c r="W17" s="58"/>
+      <c r="X17" s="58"/>
+      <c r="Y17" s="58"/>
+      <c r="Z17" s="58"/>
+      <c r="AA17" s="58"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>12</v>
       </c>
-      <c r="B18" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="38" t="s">
+      <c r="B18" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38" t="s">
+      <c r="J18" s="54"/>
+      <c r="K18" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="38"/>
+      <c r="L18" s="54"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="42"/>
-      <c r="Y18" s="42"/>
-      <c r="Z18" s="42"/>
-      <c r="AA18" s="42"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="57"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="58"/>
+      <c r="Y18" s="58"/>
+      <c r="Z18" s="58"/>
+      <c r="AA18" s="58"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>13</v>
       </c>
       <c r="B19" s="71" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C19" s="72"/>
       <c r="D19" s="72"/>
       <c r="E19" s="73"/>
-      <c r="F19" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="38" t="s">
+      <c r="F19" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38">
+      <c r="J19" s="54"/>
+      <c r="K19" s="54">
         <v>6</v>
       </c>
-      <c r="L19" s="38"/>
+      <c r="L19" s="54"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="42"/>
-      <c r="Y19" s="42"/>
-      <c r="Z19" s="42"/>
-      <c r="AA19" s="42"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="58"/>
+      <c r="V19" s="58"/>
+      <c r="W19" s="58"/>
+      <c r="X19" s="58"/>
+      <c r="Y19" s="58"/>
+      <c r="Z19" s="58"/>
+      <c r="AA19" s="58"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>14</v>
       </c>
       <c r="B20" s="71" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C20" s="72"/>
       <c r="D20" s="72"/>
       <c r="E20" s="73"/>
-      <c r="F20" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="38" t="s">
+      <c r="F20" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38" t="s">
+      <c r="J20" s="54"/>
+      <c r="K20" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L20" s="38"/>
+      <c r="L20" s="54"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="42"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="42"/>
-      <c r="Z20" s="42"/>
-      <c r="AA20" s="42"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="58"/>
+      <c r="W20" s="58"/>
+      <c r="X20" s="58"/>
+      <c r="Y20" s="58"/>
+      <c r="Z20" s="58"/>
+      <c r="AA20" s="58"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
@@ -6535,79 +6538,97 @@
       <c r="C21" s="72"/>
       <c r="D21" s="72"/>
       <c r="E21" s="73"/>
-      <c r="F21" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="38" t="s">
+      <c r="F21" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38">
+      <c r="J21" s="54"/>
+      <c r="K21" s="54">
         <v>6</v>
       </c>
-      <c r="L21" s="38"/>
+      <c r="L21" s="54"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="42"/>
-      <c r="X21" s="42"/>
-      <c r="Y21" s="42"/>
-      <c r="Z21" s="42"/>
-      <c r="AA21" s="42"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="58"/>
+      <c r="W21" s="58"/>
+      <c r="X21" s="58"/>
+      <c r="Y21" s="58"/>
+      <c r="Z21" s="58"/>
+      <c r="AA21" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="126">
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="U15:AA15"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="U20:AA20"/>
+    <mergeCell ref="U21:AA21"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="U17:AA17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="U19:AA19"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="U16:AA16"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="U12:AA12"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="U13:AA13"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="U14:AA14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
     <mergeCell ref="N14:P14"/>
     <mergeCell ref="Q14:T14"/>
     <mergeCell ref="B14:E14"/>
@@ -6632,66 +6653,48 @@
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="N16:P16"/>
     <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="U12:AA12"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="U13:AA13"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="U14:AA14"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="U15:AA15"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="U20:AA20"/>
-    <mergeCell ref="U21:AA21"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="U17:AA17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="U19:AA19"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="U16:AA16"/>
-    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6702,8 +6705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9F0380-6A5A-442D-8FC4-55232AE4172E}">
   <dimension ref="A1:AA16"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:Q1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6715,68 +6718,68 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="48" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="51" t="s">
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="54" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="48" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="52">
+      <c r="S2" s="37"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="43">
         <v>45146</v>
       </c>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
@@ -6800,18 +6803,18 @@
       <c r="O3" s="45"/>
       <c r="P3" s="45"/>
       <c r="Q3" s="45"/>
-      <c r="R3" s="48" t="s">
+      <c r="R3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="49"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="51" t="s">
+      <c r="S3" s="37"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
@@ -6831,18 +6834,18 @@
       <c r="O4" s="47"/>
       <c r="P4" s="47"/>
       <c r="Q4" s="47"/>
-      <c r="R4" s="48" t="s">
+      <c r="R4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="52">
+      <c r="S4" s="37"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="43">
         <v>45154</v>
       </c>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="U5" s="3"/>
@@ -6856,419 +6859,419 @@
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43" t="s">
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43" t="s">
+      <c r="J6" s="59"/>
+      <c r="K6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="43"/>
+      <c r="L6" s="59"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="N6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="33" t="s">
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="36" t="s">
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="71" t="s">
         <v>101</v>
-      </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="71" t="s">
-        <v>102</v>
       </c>
       <c r="G7" s="72"/>
       <c r="H7" s="73"/>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38">
+      <c r="J7" s="54"/>
+      <c r="K7" s="54">
         <v>5</v>
       </c>
-      <c r="L7" s="38"/>
+      <c r="L7" s="54"/>
       <c r="M7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="38" t="s">
+      <c r="N7" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="39" t="s">
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
       <c r="F8" s="71" t="s">
         <v>44</v>
       </c>
       <c r="G8" s="72"/>
       <c r="H8" s="73"/>
-      <c r="I8" s="38" t="s">
+      <c r="I8" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38">
+      <c r="J8" s="54"/>
+      <c r="K8" s="54">
         <v>200</v>
       </c>
-      <c r="L8" s="38"/>
+      <c r="L8" s="54"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="38" t="s">
+      <c r="N8" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="42"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
+      <c r="B9" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
       <c r="F9" s="71" t="s">
         <v>45</v>
       </c>
       <c r="G9" s="72"/>
       <c r="H9" s="73"/>
-      <c r="I9" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38" t="s">
+      <c r="I9" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="38"/>
+      <c r="L9" s="54"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="38" t="s">
+      <c r="N9" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="41"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="57"/>
       <c r="U9" s="74"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="42"/>
-      <c r="AA9" s="42"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
+      <c r="B10" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="71" t="s">
         <v>47</v>
       </c>
       <c r="G10" s="72"/>
       <c r="H10" s="73"/>
-      <c r="I10" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38" t="s">
+      <c r="I10" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="38"/>
+      <c r="L10" s="54"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="38" t="s">
+      <c r="N10" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="41"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="57"/>
       <c r="U10" s="74"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="42"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="75" t="s">
         <v>86</v>
-      </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="75" t="s">
-        <v>87</v>
       </c>
       <c r="G11" s="72"/>
       <c r="H11" s="73"/>
-      <c r="I11" s="38" t="s">
+      <c r="I11" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38">
+      <c r="J11" s="54"/>
+      <c r="K11" s="54">
         <v>200</v>
       </c>
-      <c r="L11" s="38"/>
+      <c r="L11" s="54"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="41"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="57"/>
       <c r="U11" s="74" t="s">
-        <v>93</v>
-      </c>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="42"/>
-      <c r="Z11" s="42"/>
-      <c r="AA11" s="42"/>
+        <v>92</v>
+      </c>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37" t="s">
+      <c r="B12" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38" t="s">
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="38"/>
+      <c r="L12" s="54"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="38" t="s">
+      <c r="N12" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="42"/>
-      <c r="Z12" s="42"/>
-      <c r="AA12" s="42"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="58"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>7</v>
       </c>
-      <c r="B13" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="38" t="s">
+      <c r="B13" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38" t="s">
+      <c r="J13" s="54"/>
+      <c r="K13" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="38"/>
+      <c r="L13" s="54"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="42"/>
-      <c r="Z13" s="42"/>
-      <c r="AA13" s="42"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="58"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>8</v>
       </c>
       <c r="B14" s="71" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" s="72"/>
       <c r="D14" s="72"/>
       <c r="E14" s="73"/>
-      <c r="F14" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="38" t="s">
+      <c r="F14" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38">
+      <c r="J14" s="54"/>
+      <c r="K14" s="54">
         <v>6</v>
       </c>
-      <c r="L14" s="38"/>
+      <c r="L14" s="54"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="42"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="42"/>
-      <c r="Z14" s="42"/>
-      <c r="AA14" s="42"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="58"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>9</v>
       </c>
       <c r="B15" s="71" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" s="72"/>
       <c r="D15" s="72"/>
       <c r="E15" s="73"/>
-      <c r="F15" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="38" t="s">
+      <c r="F15" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38" t="s">
+      <c r="J15" s="54"/>
+      <c r="K15" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="38"/>
+      <c r="L15" s="54"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="42"/>
-      <c r="Y15" s="42"/>
-      <c r="Z15" s="42"/>
-      <c r="AA15" s="42"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="58"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
@@ -7280,112 +7283,37 @@
       <c r="C16" s="72"/>
       <c r="D16" s="72"/>
       <c r="E16" s="73"/>
-      <c r="F16" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="38" t="s">
+      <c r="F16" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38">
+      <c r="J16" s="54"/>
+      <c r="K16" s="54">
         <v>6</v>
       </c>
-      <c r="L16" s="38"/>
+      <c r="L16" s="54"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="42"/>
-      <c r="AA16" s="42"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="U15:AA15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="U16:AA16"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="U13:AA13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="U14:AA14"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:P10"/>
     <mergeCell ref="Q11:T11"/>
     <mergeCell ref="U11:AA11"/>
     <mergeCell ref="B12:E12"/>
@@ -7400,780 +7328,13 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="N11:P11"/>
-  </mergeCells>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79AA1B0E-65A6-441D-990E-73926E3709B8}">
-  <dimension ref="A1:AA30"/>
-  <sheetViews>
-    <sheetView topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12:P12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="52">
-        <v>45146</v>
-      </c>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" s="49"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="52">
-        <v>45154</v>
-      </c>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="15"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="43"/>
-      <c r="M6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38">
-        <v>5</v>
-      </c>
-      <c r="L7" s="38"/>
-      <c r="M7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
-        <v>2</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38">
-        <v>1</v>
-      </c>
-      <c r="L8" s="38"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="42"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
-        <v>3</v>
-      </c>
-      <c r="B9" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="72"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="39">
-        <v>1</v>
-      </c>
-      <c r="L9" s="41"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" s="40"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="75"/>
-      <c r="V9" s="78"/>
-      <c r="W9" s="78"/>
-      <c r="X9" s="78"/>
-      <c r="Y9" s="78"/>
-      <c r="Z9" s="78"/>
-      <c r="AA9" s="79"/>
-    </row>
-    <row r="10" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
-        <v>4</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38">
-        <v>200</v>
-      </c>
-      <c r="L10" s="38"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10" s="40"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="42"/>
-    </row>
-    <row r="11" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
-        <v>5</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="38"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="42"/>
-      <c r="Z11" s="42"/>
-      <c r="AA11" s="42"/>
-    </row>
-    <row r="12" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
-        <v>6</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="38"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="42"/>
-      <c r="Z12" s="42"/>
-      <c r="AA12" s="42"/>
-    </row>
-    <row r="13" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
-        <v>7</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38">
-        <v>200</v>
-      </c>
-      <c r="L13" s="38"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="42"/>
-      <c r="Z13" s="42"/>
-      <c r="AA13" s="42"/>
-    </row>
-    <row r="14" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="2">
-        <v>8</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="38"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="V14" s="42"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="42"/>
-      <c r="Z14" s="42"/>
-      <c r="AA14" s="42"/>
-    </row>
-    <row r="15" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="2">
-        <v>9</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="38"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="42"/>
-      <c r="Y15" s="42"/>
-      <c r="Z15" s="42"/>
-      <c r="AA15" s="42"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A16" s="2">
-        <v>10</v>
-      </c>
-      <c r="B16" s="71" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38">
-        <v>6</v>
-      </c>
-      <c r="L16" s="38"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="42"/>
-      <c r="AA16" s="42"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A17" s="2">
-        <v>11</v>
-      </c>
-      <c r="B17" s="71" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="38"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="42"/>
-      <c r="Z17" s="42"/>
-      <c r="AA17" s="42"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A18" s="2">
-        <v>12</v>
-      </c>
-      <c r="B18" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38">
-        <v>6</v>
-      </c>
-      <c r="L18" s="38"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="42"/>
-      <c r="Y18" s="42"/>
-      <c r="Z18" s="42"/>
-      <c r="AA18" s="42"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A30" s="13"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="77"/>
-      <c r="O30" s="77"/>
-      <c r="P30" s="77"/>
-      <c r="Q30" s="77"/>
-      <c r="R30" s="77"/>
-      <c r="S30" s="77"/>
-      <c r="T30" s="77"/>
-      <c r="U30" s="76"/>
-      <c r="V30" s="76"/>
-      <c r="W30" s="76"/>
-      <c r="X30" s="76"/>
-      <c r="Y30" s="76"/>
-      <c r="Z30" s="76"/>
-      <c r="AA30" s="76"/>
-    </row>
-  </sheetData>
-  <mergeCells count="110">
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="U17:AA17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="U18:AA18"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="U15:AA15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="U16:AA16"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="U30:AA30"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="Q30:T30"/>
-    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U10:AA10"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="U11:AA11"/>
-    <mergeCell ref="B12:E12"/>
     <mergeCell ref="U8:AA8"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="F8:H8"/>
@@ -8207,17 +7368,13 @@
     <mergeCell ref="E2:Q2"/>
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="U12:AA12"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
     <mergeCell ref="Q13:T13"/>
     <mergeCell ref="U13:AA13"/>
     <mergeCell ref="B14:E14"/>
@@ -8232,6 +7389,852 @@
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="U15:AA15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="U16:AA16"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N15:P15"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79AA1B0E-65A6-441D-990E-73926E3709B8}">
+  <dimension ref="A1:AA30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A2" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="37"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="43">
+        <v>45146</v>
+      </c>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="37"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" s="37"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="43">
+        <v>45154</v>
+      </c>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="15"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="59"/>
+      <c r="M6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54">
+        <v>5</v>
+      </c>
+      <c r="L7" s="54"/>
+      <c r="M7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54">
+        <v>1</v>
+      </c>
+      <c r="L8" s="54"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="72"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="54"/>
+      <c r="K9" s="55">
+        <v>1</v>
+      </c>
+      <c r="L9" s="57"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="56"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="75"/>
+      <c r="V9" s="78"/>
+      <c r="W9" s="78"/>
+      <c r="X9" s="78"/>
+      <c r="Y9" s="78"/>
+      <c r="Z9" s="78"/>
+      <c r="AA9" s="79"/>
+    </row>
+    <row r="10" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54">
+        <v>200</v>
+      </c>
+      <c r="L10" s="54"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="56"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
+    </row>
+    <row r="11" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="54"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
+    </row>
+    <row r="12" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="54"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="58"/>
+    </row>
+    <row r="13" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>7</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54">
+        <v>200</v>
+      </c>
+      <c r="L13" s="54"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="58"/>
+    </row>
+    <row r="14" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <v>8</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="54"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="58"/>
+    </row>
+    <row r="15" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>9</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="54"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="58"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>10</v>
+      </c>
+      <c r="B16" s="71" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54">
+        <v>6</v>
+      </c>
+      <c r="L16" s="54"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="58"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>11</v>
+      </c>
+      <c r="B17" s="71" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="54"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="58"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="58"/>
+      <c r="X17" s="58"/>
+      <c r="Y17" s="58"/>
+      <c r="Z17" s="58"/>
+      <c r="AA17" s="58"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A18" s="2">
+        <v>12</v>
+      </c>
+      <c r="B18" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54">
+        <v>6</v>
+      </c>
+      <c r="L18" s="54"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="57"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="58"/>
+      <c r="Y18" s="58"/>
+      <c r="Z18" s="58"/>
+      <c r="AA18" s="58"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A30" s="13"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="77"/>
+      <c r="P30" s="77"/>
+      <c r="Q30" s="77"/>
+      <c r="R30" s="77"/>
+      <c r="S30" s="77"/>
+      <c r="T30" s="77"/>
+      <c r="U30" s="76"/>
+      <c r="V30" s="76"/>
+      <c r="W30" s="76"/>
+      <c r="X30" s="76"/>
+      <c r="Y30" s="76"/>
+      <c r="Z30" s="76"/>
+      <c r="AA30" s="76"/>
+    </row>
+  </sheetData>
+  <mergeCells count="110">
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="U13:AA13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="U14:AA14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="U12:AA12"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="U30:AA30"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="Q30:T30"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="U15:AA15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="U16:AA16"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="U17:AA17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="U18:AA18"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="N17:P17"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8249,14 +8252,14 @@
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42"/>
       <c r="E1" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F1" s="68"/>
       <c r="G1" s="68"/>
@@ -8270,18 +8273,18 @@
       <c r="O1" s="68"/>
       <c r="P1" s="68"/>
       <c r="Q1" s="68"/>
-      <c r="R1" s="48" t="s">
+      <c r="R1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="51" t="s">
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
       <c r="Z1" s="29"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
@@ -8292,7 +8295,7 @@
       <c r="C2" s="60"/>
       <c r="D2" s="60"/>
       <c r="E2" s="67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F2" s="68"/>
       <c r="G2" s="68"/>
@@ -8306,18 +8309,18 @@
       <c r="O2" s="68"/>
       <c r="P2" s="68"/>
       <c r="Q2" s="69"/>
-      <c r="R2" s="48" t="s">
+      <c r="R2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="52">
+      <c r="S2" s="37"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="43">
         <v>45146</v>
       </c>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
       <c r="Z2" s="29"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
@@ -8328,7 +8331,7 @@
       <c r="C3" s="62"/>
       <c r="D3" s="63"/>
       <c r="E3" s="70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F3" s="45"/>
       <c r="G3" s="45"/>
@@ -8342,18 +8345,18 @@
       <c r="O3" s="45"/>
       <c r="P3" s="45"/>
       <c r="Q3" s="45"/>
-      <c r="R3" s="48" t="s">
+      <c r="R3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="49"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="51" t="s">
+      <c r="S3" s="37"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
       <c r="Z3" s="29"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
@@ -8374,292 +8377,306 @@
       <c r="O4" s="47"/>
       <c r="P4" s="47"/>
       <c r="Q4" s="47"/>
-      <c r="R4" s="48" t="s">
+      <c r="R4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="52">
+      <c r="S4" s="37"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="43">
         <v>45154</v>
       </c>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
       <c r="Z4" s="29"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43" t="s">
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43" t="s">
+      <c r="J6" s="59"/>
+      <c r="K6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="43"/>
+      <c r="L6" s="59"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="N6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="33" t="s">
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="36" t="s">
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38" t="s">
+      <c r="B7" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38">
+      <c r="J7" s="54"/>
+      <c r="K7" s="54">
         <v>6</v>
       </c>
-      <c r="L7" s="38"/>
+      <c r="L7" s="54"/>
       <c r="M7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="38" t="s">
+      <c r="N7" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="38" t="s">
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38">
+      <c r="J8" s="54"/>
+      <c r="K8" s="54">
         <v>5</v>
       </c>
-      <c r="L8" s="38"/>
+      <c r="L8" s="54"/>
       <c r="M8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="38" t="s">
+      <c r="N8" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="42"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="38" t="s">
+      <c r="B9" s="53" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53" t="s">
+        <v>180</v>
+      </c>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38" t="s">
+      <c r="J9" s="54"/>
+      <c r="K9" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="38"/>
+      <c r="L9" s="54"/>
       <c r="M9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="38" t="s">
+      <c r="N9" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="42"/>
-      <c r="AA9" s="42"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38" t="s">
+      <c r="B10" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="38"/>
+      <c r="L10" s="54"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="38" t="s">
+      <c r="N10" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="42"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37" t="s">
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="38" t="s">
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38">
+      <c r="J11" s="54"/>
+      <c r="K11" s="54">
         <v>200</v>
       </c>
-      <c r="L11" s="38"/>
+      <c r="L11" s="54"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="42"/>
-      <c r="Z11" s="42"/>
-      <c r="AA11" s="42"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:T8"/>
     <mergeCell ref="U6:AA6"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F7:H7"/>
@@ -8674,34 +8691,20 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="N6:P6"/>
     <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="U11:AA11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
